--- a/results/2012_reps_by_state(1).xlsx
+++ b/results/2012_reps_by_state(1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/MM2/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D110686D-182B-9849-B86F-8869CDE5076D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE893A9-F6FB-5C40-845A-6793D6B32A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="500" windowWidth="27300" windowHeight="16940" xr2:uid="{24A61AB0-1BF7-FA49-BDC3-BAB168A5D905}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_2012_reps_by_state_1" localSheetId="0">Sheet1!$A$1:$J$51</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{3DCE0282-AED5-AB49-8B31-FFA0B0A381DD}" name="2012_reps_by_state(1)" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/alecramsay/Documents/dev/MM2/results/2012_reps_by_state(1).csv" comma="1">
+    <textPr sourceFile="/Users/alecramsay/Documents/dev/MM2/results/2012_reps_by_state(1).csv" comma="1">
       <textFields count="10">
         <textField type="text"/>
         <textField/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>XX</t>
   </si>
@@ -240,6 +240,30 @@
   </si>
   <si>
     <t>WY</t>
+  </si>
+  <si>
+    <t>nPOWER</t>
+  </si>
+  <si>
+    <t>nPOWER'</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>median</t>
+  </si>
+  <si>
+    <t>ΔSKEW</t>
+  </si>
+  <si>
+    <t>ΔnPOWER</t>
   </si>
 </sst>
 </file>
@@ -263,12 +287,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -283,13 +313,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -608,13 +649,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB9AFDC-6B0A-F248-B0C7-7FF8E4A39719}">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:P56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I1" sqref="I1:I1048576"/>
+      <selection pane="bottomRight" activeCell="P40" sqref="P40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -622,15 +663,21 @@
     <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.83203125" customWidth="1"/>
+    <col min="12" max="13" width="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.83203125" style="14" customWidth="1"/>
+    <col min="15" max="15" width="7.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -646,10 +693,10 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -658,11 +705,25 @@
       <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" s="11"/>
+      <c r="L1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N1" s="13"/>
+      <c r="O1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -676,25 +737,42 @@
         <v>1</v>
       </c>
       <c r="E2" s="5">
-        <v>0.28571400000000002</v>
-      </c>
-      <c r="F2">
+        <v>0.24343500000000001</v>
+      </c>
+      <c r="F2" s="7">
         <v>686140.285714</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="9">
         <v>9</v>
       </c>
       <c r="H2">
         <v>3</v>
       </c>
       <c r="I2" s="5">
-        <v>0.28571400000000002</v>
-      </c>
-      <c r="J2">
+        <v>5.2958999999999999E-2</v>
+      </c>
+      <c r="J2" s="7">
         <v>533664.66666700004</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K2" s="12"/>
+      <c r="L2" s="9">
+        <f>MIN(F$2:F$51)/F2</f>
+        <v>0.76897321289181142</v>
+      </c>
+      <c r="M2" s="9">
+        <f>MIN(J$2:J$51)/J2</f>
+        <v>0.76804878719047787</v>
+      </c>
+      <c r="O2" s="5">
+        <f>I2-E2</f>
+        <v>-0.19047600000000001</v>
+      </c>
+      <c r="P2" s="9">
+        <f>M2-L2</f>
+        <v>-9.2442570133355328E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -708,25 +786,42 @@
         <v>0</v>
       </c>
       <c r="E3" s="5">
-        <v>0</v>
-      </c>
-      <c r="F3">
+        <v>0.309172</v>
+      </c>
+      <c r="F3" s="7">
         <v>721523</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="9">
         <v>1</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" s="5">
+        <v>0.309172</v>
+      </c>
+      <c r="J3" s="7">
+        <v>721523</v>
+      </c>
+      <c r="K3" s="12"/>
+      <c r="L3" s="9">
+        <f t="shared" ref="L3:L51" si="0">MIN(F$2:F$51)/F3</f>
+        <v>0.73126359104283578</v>
+      </c>
+      <c r="M3" s="9">
+        <f t="shared" ref="M3:M51" si="1">MIN(J$2:J$51)/J3</f>
+        <v>0.56807683192358382</v>
+      </c>
+      <c r="O3" s="5">
+        <f t="shared" ref="O3:O51" si="2">I3-E3</f>
         <v>0</v>
       </c>
-      <c r="J3">
-        <v>721523</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="P3" s="9">
+        <f t="shared" ref="P3:P51" si="3">M3-L3</f>
+        <v>-0.16318675911925196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -740,25 +835,42 @@
         <v>5</v>
       </c>
       <c r="E4" s="5">
-        <v>0.111111</v>
-      </c>
-      <c r="F4">
+        <v>9.7461000000000006E-2</v>
+      </c>
+      <c r="F4" s="7">
         <v>712522.22222200001</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="9">
         <v>12</v>
       </c>
       <c r="H4">
         <v>5</v>
       </c>
       <c r="I4" s="5">
-        <v>0.111111</v>
-      </c>
-      <c r="J4">
+        <v>4.1428E-2</v>
+      </c>
+      <c r="J4" s="7">
         <v>534391.66666700004</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K4" s="12"/>
+      <c r="L4" s="9">
+        <f t="shared" si="0"/>
+        <v>0.74050111497520243</v>
+      </c>
+      <c r="M4" s="9">
+        <f t="shared" si="1"/>
+        <v>0.7670039141074636</v>
+      </c>
+      <c r="O4" s="5">
+        <f t="shared" si="2"/>
+        <v>-5.6033000000000006E-2</v>
+      </c>
+      <c r="P4" s="9">
+        <f t="shared" si="3"/>
+        <v>2.6502799132261168E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -772,25 +884,42 @@
         <v>0</v>
       </c>
       <c r="E5" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="F5">
+        <v>0.37630200000000003</v>
+      </c>
+      <c r="F5" s="7">
         <v>731557.25</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="9">
         <v>6</v>
       </c>
       <c r="H5">
         <v>2</v>
       </c>
       <c r="I5" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="J5">
+        <v>4.2969E-2</v>
+      </c>
+      <c r="J5" s="7">
         <v>487704.83333300002</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K5" s="12"/>
+      <c r="L5" s="9">
+        <f t="shared" si="0"/>
+        <v>0.72123336895369428</v>
+      </c>
+      <c r="M5" s="9">
+        <f t="shared" si="1"/>
+        <v>0.84042738965463082</v>
+      </c>
+      <c r="O5" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.33333300000000005</v>
+      </c>
+      <c r="P5" s="9">
+        <f t="shared" si="3"/>
+        <v>0.11919402070093654</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -804,25 +933,42 @@
         <v>38</v>
       </c>
       <c r="E6" s="5">
-        <v>0.132075</v>
-      </c>
-      <c r="F6">
+        <v>0.12701499999999999</v>
+      </c>
+      <c r="F6" s="7">
         <v>704565.830189</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="9">
         <v>73</v>
       </c>
       <c r="H6">
         <v>43</v>
       </c>
       <c r="I6" s="5">
-        <v>0.132075</v>
-      </c>
-      <c r="J6">
+        <v>9.2500000000000004E-4</v>
+      </c>
+      <c r="J6" s="7">
         <v>511534.09589</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K6" s="12"/>
+      <c r="L6" s="9">
+        <f t="shared" si="0"/>
+        <v>0.7488633104141097</v>
+      </c>
+      <c r="M6" s="9">
+        <f t="shared" si="1"/>
+        <v>0.80127698875451003</v>
+      </c>
+      <c r="O6" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.12608999999999998</v>
+      </c>
+      <c r="P6" s="9">
+        <f t="shared" si="3"/>
+        <v>5.2413678340400338E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -836,25 +982,42 @@
         <v>3</v>
       </c>
       <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7">
+        <v>7.0072999999999996E-2</v>
+      </c>
+      <c r="F7" s="7">
         <v>720704.285714</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="9">
         <v>10</v>
       </c>
       <c r="H7">
         <v>5</v>
       </c>
       <c r="I7" s="5">
-        <v>0</v>
-      </c>
-      <c r="J7">
+        <v>1.356E-3</v>
+      </c>
+      <c r="J7" s="7">
         <v>504493</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K7" s="12"/>
+      <c r="L7" s="9">
+        <f t="shared" si="0"/>
+        <v>0.73209430061496672</v>
+      </c>
+      <c r="M7" s="9">
+        <f t="shared" si="1"/>
+        <v>0.8124602323520842</v>
+      </c>
+      <c r="O7" s="5">
+        <f t="shared" si="2"/>
+        <v>-6.8717E-2</v>
+      </c>
+      <c r="P7" s="9">
+        <f t="shared" si="3"/>
+        <v>8.036593173711748E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -868,25 +1031,42 @@
         <v>5</v>
       </c>
       <c r="E8" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="F8">
+        <v>0.35679100000000002</v>
+      </c>
+      <c r="F8" s="7">
         <v>716325.6</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="9">
         <v>7</v>
       </c>
       <c r="H8">
         <v>5</v>
       </c>
       <c r="I8" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="J8">
+        <v>7.1077000000000001E-2</v>
+      </c>
+      <c r="J8" s="7">
         <v>511661.142857</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K8" s="12"/>
+      <c r="L8" s="9">
+        <f t="shared" si="0"/>
+        <v>0.73656937571406078</v>
+      </c>
+      <c r="M8" s="9">
+        <f t="shared" si="1"/>
+        <v>0.80107802932096828</v>
+      </c>
+      <c r="O8" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.28571400000000002</v>
+      </c>
+      <c r="P8" s="9">
+        <f t="shared" si="3"/>
+        <v>6.4508653606907496E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -900,25 +1080,42 @@
         <v>1</v>
       </c>
       <c r="E9" s="5">
-        <v>0</v>
-      </c>
-      <c r="F9">
+        <v>0.34174500000000002</v>
+      </c>
+      <c r="F9" s="7">
         <v>900877</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="9">
         <v>2</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" s="5">
-        <v>0</v>
-      </c>
-      <c r="J9">
+        <v>0.15825500000000001</v>
+      </c>
+      <c r="J9" s="7">
         <v>450438.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K9" s="12"/>
+      <c r="L9" s="9">
+        <f t="shared" si="0"/>
+        <v>0.58567762302733894</v>
+      </c>
+      <c r="M9" s="9">
+        <f t="shared" si="1"/>
+        <v>0.90995885120832254</v>
+      </c>
+      <c r="O9" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.18349000000000001</v>
+      </c>
+      <c r="P9" s="9">
+        <f t="shared" si="3"/>
+        <v>0.32428122818098359</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -932,25 +1129,42 @@
         <v>10</v>
       </c>
       <c r="E10" s="5">
-        <v>0.111111</v>
-      </c>
-      <c r="F10">
+        <v>0.100089</v>
+      </c>
+      <c r="F10" s="7">
         <v>700028.62962999998</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="9">
         <v>37</v>
       </c>
       <c r="H10">
         <v>17</v>
       </c>
       <c r="I10" s="5">
-        <v>0.111111</v>
-      </c>
-      <c r="J10">
+        <v>1.0999E-2</v>
+      </c>
+      <c r="J10" s="7">
         <v>510831.70270299999</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K10" s="12"/>
+      <c r="L10" s="9">
+        <f t="shared" si="0"/>
+        <v>0.7537170305147024</v>
+      </c>
+      <c r="M10" s="9">
+        <f t="shared" si="1"/>
+        <v>0.80237874398000408</v>
+      </c>
+      <c r="O10" s="5">
+        <f t="shared" si="2"/>
+        <v>-8.9090000000000003E-2</v>
+      </c>
+      <c r="P10" s="9">
+        <f t="shared" si="3"/>
+        <v>4.8661713465301681E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -964,25 +1178,42 @@
         <v>5</v>
       </c>
       <c r="E11" s="5">
-        <v>7.1429000000000006E-2</v>
-      </c>
-      <c r="F11">
+        <v>9.3165999999999999E-2</v>
+      </c>
+      <c r="F11" s="7">
         <v>694826.142857</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="9">
         <v>19</v>
       </c>
       <c r="H11">
         <v>9</v>
       </c>
       <c r="I11" s="5">
-        <v>7.1429000000000006E-2</v>
-      </c>
-      <c r="J11">
+        <v>2.3376000000000001E-2</v>
+      </c>
+      <c r="J11" s="7">
         <v>511977.15789500001</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K11" s="12"/>
+      <c r="L11" s="9">
+        <f t="shared" si="0"/>
+        <v>0.75936046077729191</v>
+      </c>
+      <c r="M11" s="9">
+        <f t="shared" si="1"/>
+        <v>0.80058356838658273</v>
+      </c>
+      <c r="O11" s="5">
+        <f t="shared" si="2"/>
+        <v>-6.9789999999999991E-2</v>
+      </c>
+      <c r="P11" s="9">
+        <f t="shared" si="3"/>
+        <v>4.1223107609290821E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -996,25 +1227,42 @@
         <v>2</v>
       </c>
       <c r="E12" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="F12">
+        <v>0.32548700000000003</v>
+      </c>
+      <c r="F12" s="7">
         <v>683431</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="9">
         <v>3</v>
       </c>
       <c r="H12">
         <v>2</v>
       </c>
       <c r="I12" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="J12">
+        <v>7.8460000000000005E-3</v>
+      </c>
+      <c r="J12" s="7">
         <v>455620.66666699998</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K12" s="12"/>
+      <c r="L12" s="9">
+        <f t="shared" si="0"/>
+        <v>0.77202160861886571</v>
+      </c>
+      <c r="M12" s="9">
+        <f t="shared" si="1"/>
+        <v>0.89960910464926269</v>
+      </c>
+      <c r="O12" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.31764100000000001</v>
+      </c>
+      <c r="P12" s="9">
+        <f t="shared" si="3"/>
+        <v>0.12758749603039699</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -1028,25 +1276,42 @@
         <v>0</v>
       </c>
       <c r="E13" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="F13">
+        <v>0.33863300000000002</v>
+      </c>
+      <c r="F13" s="7">
         <v>786749.5</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="9">
         <v>3</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="J13">
+        <v>5.3E-3</v>
+      </c>
+      <c r="J13" s="7">
         <v>524499.66666700004</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K13" s="12"/>
+      <c r="L13" s="9">
+        <f t="shared" si="0"/>
+        <v>0.67063722315679897</v>
+      </c>
+      <c r="M13" s="9">
+        <f t="shared" si="1"/>
+        <v>0.78146951475610626</v>
+      </c>
+      <c r="O13" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.33333299999999999</v>
+      </c>
+      <c r="P13" s="9">
+        <f t="shared" si="3"/>
+        <v>0.1108322915993073</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -1060,25 +1325,42 @@
         <v>12</v>
       </c>
       <c r="E14" s="5">
-        <v>0.111111</v>
-      </c>
-      <c r="F14">
+        <v>0.112554</v>
+      </c>
+      <c r="F14" s="7">
         <v>714687.77777799999</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="9">
         <v>25</v>
       </c>
       <c r="H14">
         <v>14</v>
       </c>
       <c r="I14" s="5">
-        <v>0.111111</v>
-      </c>
-      <c r="J14">
+        <v>5.8869999999999999E-3</v>
+      </c>
+      <c r="J14" s="7">
         <v>514575.2</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K14" s="12"/>
+      <c r="L14" s="9">
+        <f t="shared" si="0"/>
+        <v>0.73825734314417379</v>
+      </c>
+      <c r="M14" s="9">
+        <f t="shared" si="1"/>
+        <v>0.79654149675304986</v>
+      </c>
+      <c r="O14" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.106667</v>
+      </c>
+      <c r="P14" s="9">
+        <f t="shared" si="3"/>
+        <v>5.8284153608876066E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -1092,25 +1374,42 @@
         <v>2</v>
       </c>
       <c r="E15" s="5">
-        <v>0.222222</v>
-      </c>
-      <c r="F15">
+        <v>0.235841</v>
+      </c>
+      <c r="F15" s="7">
         <v>722398</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="9">
         <v>13</v>
       </c>
       <c r="H15">
         <v>6</v>
       </c>
       <c r="I15" s="5">
-        <v>0.222222</v>
-      </c>
-      <c r="J15">
+        <v>3.4749999999999998E-3</v>
+      </c>
+      <c r="J15" s="7">
         <v>500121.692308</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K15" s="12"/>
+      <c r="L15" s="9">
+        <f t="shared" si="0"/>
+        <v>0.73037785265186228</v>
+      </c>
+      <c r="M15" s="9">
+        <f t="shared" si="1"/>
+        <v>0.81956153133140852</v>
+      </c>
+      <c r="O15" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.23236599999999999</v>
+      </c>
+      <c r="P15" s="9">
+        <f t="shared" si="3"/>
+        <v>8.9183678679546241E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -1124,25 +1423,42 @@
         <v>2</v>
       </c>
       <c r="E16" s="5">
-        <v>0</v>
-      </c>
-      <c r="F16">
+        <v>1.5304999999999999E-2</v>
+      </c>
+      <c r="F16" s="7">
         <v>763446.75</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="9">
         <v>6</v>
       </c>
       <c r="H16">
         <v>3</v>
       </c>
       <c r="I16" s="5">
+        <v>1.5304999999999999E-2</v>
+      </c>
+      <c r="J16" s="7">
+        <v>508964.5</v>
+      </c>
+      <c r="K16" s="12"/>
+      <c r="L16" s="9">
+        <f t="shared" si="0"/>
+        <v>0.69110714008540874</v>
+      </c>
+      <c r="M16" s="9">
+        <f t="shared" si="1"/>
+        <v>0.80532237513618332</v>
+      </c>
+      <c r="O16" s="5">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J16">
-        <v>508964.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="P16" s="9">
+        <f t="shared" si="3"/>
+        <v>0.11421523505077458</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -1156,25 +1472,42 @@
         <v>0</v>
       </c>
       <c r="E17" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="F17">
+        <v>0.33825300000000003</v>
+      </c>
+      <c r="F17" s="7">
         <v>715953.25</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="9">
         <v>6</v>
       </c>
       <c r="H17">
         <v>2</v>
       </c>
       <c r="I17" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="J17">
+        <v>4.9189999999999998E-3</v>
+      </c>
+      <c r="J17" s="7">
         <v>477302.16666699998</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K17" s="12"/>
+      <c r="L17" s="9">
+        <f t="shared" si="0"/>
+        <v>0.73695244766330759</v>
+      </c>
+      <c r="M17" s="9">
+        <f t="shared" si="1"/>
+        <v>0.85874426856721531</v>
+      </c>
+      <c r="O17" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.33333400000000002</v>
+      </c>
+      <c r="P17" s="9">
+        <f t="shared" si="3"/>
+        <v>0.12179182090390772</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -1188,25 +1521,42 @@
         <v>1</v>
       </c>
       <c r="E18" s="5">
-        <v>0.16666700000000001</v>
-      </c>
-      <c r="F18">
+        <v>0.23322399999999999</v>
+      </c>
+      <c r="F18" s="7">
         <v>725101</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="9">
         <v>8</v>
       </c>
       <c r="H18">
         <v>3</v>
       </c>
       <c r="I18" s="5">
-        <v>0.16666700000000001</v>
-      </c>
-      <c r="J18">
+        <v>2.4891E-2</v>
+      </c>
+      <c r="J18" s="7">
         <v>543825.75</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K18" s="12"/>
+      <c r="L18" s="9">
+        <f t="shared" si="0"/>
+        <v>0.72765518182984168</v>
+      </c>
+      <c r="M18" s="9">
+        <f t="shared" si="1"/>
+        <v>0.75369822043182033</v>
+      </c>
+      <c r="O18" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.20833299999999999</v>
+      </c>
+      <c r="P18" s="9">
+        <f t="shared" si="3"/>
+        <v>2.6043038601978652E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
@@ -1220,25 +1570,42 @@
         <v>1</v>
       </c>
       <c r="E19" s="5">
-        <v>0.16666700000000001</v>
-      </c>
-      <c r="F19">
+        <v>0.18790699999999999</v>
+      </c>
+      <c r="F19" s="7">
         <v>758993.66666700004</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="9">
         <v>9</v>
       </c>
       <c r="H19">
         <v>3</v>
       </c>
       <c r="I19" s="5">
-        <v>0.16666700000000001</v>
-      </c>
-      <c r="J19">
+        <v>2.1239999999999998E-2</v>
+      </c>
+      <c r="J19" s="7">
         <v>505995.77777799999</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K19" s="12"/>
+      <c r="L19" s="9">
+        <f t="shared" si="0"/>
+        <v>0.6951619271303997</v>
+      </c>
+      <c r="M19" s="9">
+        <f t="shared" si="1"/>
+        <v>0.8100472731213787</v>
+      </c>
+      <c r="O19" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.16666699999999998</v>
+      </c>
+      <c r="P19" s="9">
+        <f t="shared" si="3"/>
+        <v>0.11488534599097899</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
@@ -1252,25 +1619,42 @@
         <v>2</v>
       </c>
       <c r="E20" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="F20">
+        <v>0.38336900000000002</v>
+      </c>
+      <c r="F20" s="7">
         <v>666537</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="9">
         <v>3</v>
       </c>
       <c r="H20">
         <v>2</v>
       </c>
       <c r="I20" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="J20">
+        <v>5.0035999999999997E-2</v>
+      </c>
+      <c r="J20" s="7">
         <v>444358</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K20" s="12"/>
+      <c r="L20" s="9">
+        <f t="shared" si="0"/>
+        <v>0.79158921410214289</v>
+      </c>
+      <c r="M20" s="9">
+        <f t="shared" si="1"/>
+        <v>0.92241053384883365</v>
+      </c>
+      <c r="O20" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.33333299999999999</v>
+      </c>
+      <c r="P20" s="9">
+        <f t="shared" si="3"/>
+        <v>0.13082131974669076</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
@@ -1284,25 +1668,42 @@
         <v>7</v>
       </c>
       <c r="E21" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="F21">
+        <v>0.22039600000000001</v>
+      </c>
+      <c r="F21" s="7">
         <v>723741.125</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="9">
         <v>11</v>
       </c>
       <c r="H21">
         <v>7</v>
       </c>
       <c r="I21" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="J21">
+        <v>1.8239999999999999E-2</v>
+      </c>
+      <c r="J21" s="7">
         <v>526357.18181800004</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K21" s="12"/>
+      <c r="L21" s="9">
+        <f t="shared" si="0"/>
+        <v>0.72902241115564625</v>
+      </c>
+      <c r="M21" s="9">
+        <f t="shared" si="1"/>
+        <v>0.77871170786404409</v>
+      </c>
+      <c r="O21" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.202156</v>
+      </c>
+      <c r="P21" s="9">
+        <f t="shared" si="3"/>
+        <v>4.9689296708397834E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
@@ -1316,25 +1717,42 @@
         <v>9</v>
       </c>
       <c r="E22" s="5">
-        <v>0.33333299999999999</v>
-      </c>
-      <c r="F22">
+        <v>0.32650099999999999</v>
+      </c>
+      <c r="F22" s="7">
         <v>728849.33333299996</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="9">
         <v>13</v>
       </c>
       <c r="H22">
         <v>9</v>
       </c>
       <c r="I22" s="5">
-        <v>0.33333299999999999</v>
-      </c>
-      <c r="J22">
+        <v>1.8808999999999999E-2</v>
+      </c>
+      <c r="J22" s="7">
         <v>504588</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K22" s="12"/>
+      <c r="L22" s="9">
+        <f t="shared" si="0"/>
+        <v>0.72391298979063068</v>
+      </c>
+      <c r="M22" s="9">
+        <f t="shared" si="1"/>
+        <v>0.81230726850420543</v>
+      </c>
+      <c r="O22" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.30769199999999997</v>
+      </c>
+      <c r="P22" s="9">
+        <f t="shared" si="3"/>
+        <v>8.8394278713574748E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
@@ -1348,25 +1766,42 @@
         <v>5</v>
       </c>
       <c r="E23" s="5">
-        <v>0.14285700000000001</v>
-      </c>
-      <c r="F23">
+        <v>0.17017199999999999</v>
+      </c>
+      <c r="F23" s="7">
         <v>707973.285714</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="9">
         <v>19</v>
       </c>
       <c r="H23">
         <v>10</v>
       </c>
       <c r="I23" s="5">
-        <v>0.14285700000000001</v>
-      </c>
-      <c r="J23">
+        <v>9.990000000000001E-4</v>
+      </c>
+      <c r="J23" s="7">
         <v>521664.52631599997</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K23" s="12"/>
+      <c r="L23" s="9">
+        <f t="shared" si="0"/>
+        <v>0.74525905234953183</v>
+      </c>
+      <c r="M23" s="9">
+        <f t="shared" si="1"/>
+        <v>0.78571664225394078</v>
+      </c>
+      <c r="O23" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.16917299999999999</v>
+      </c>
+      <c r="P23" s="9">
+        <f t="shared" si="3"/>
+        <v>4.0457589904408953E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
@@ -1380,25 +1815,42 @@
         <v>5</v>
       </c>
       <c r="E24" s="5">
-        <v>0</v>
-      </c>
-      <c r="F24">
+        <v>6.1751E-2</v>
+      </c>
+      <c r="F24" s="7">
         <v>664359.875</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="9">
         <v>10</v>
       </c>
       <c r="H24">
         <v>6</v>
       </c>
       <c r="I24" s="5">
-        <v>0</v>
-      </c>
-      <c r="J24">
+        <v>3.6750999999999999E-2</v>
+      </c>
+      <c r="J24" s="7">
         <v>531487.9</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K24" s="12"/>
+      <c r="L24" s="9">
+        <f t="shared" si="0"/>
+        <v>0.79418327303406155</v>
+      </c>
+      <c r="M24" s="9">
+        <f t="shared" si="1"/>
+        <v>0.77119441477407102</v>
+      </c>
+      <c r="O24" s="5">
+        <f t="shared" si="2"/>
+        <v>-2.5000000000000001E-2</v>
+      </c>
+      <c r="P24" s="9">
+        <f t="shared" si="3"/>
+        <v>-2.298885825999053E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
@@ -1412,25 +1864,42 @@
         <v>1</v>
       </c>
       <c r="E25" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="F25">
+        <v>0.17117499999999999</v>
+      </c>
+      <c r="F25" s="7">
         <v>744560</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="9">
         <v>6</v>
       </c>
       <c r="H25">
         <v>3</v>
       </c>
       <c r="I25" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="J25">
+        <v>7.8825000000000006E-2</v>
+      </c>
+      <c r="J25" s="7">
         <v>496373.33333300002</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K25" s="12"/>
+      <c r="L25" s="9">
+        <f t="shared" si="0"/>
+        <v>0.70863798753626306</v>
+      </c>
+      <c r="M25" s="9">
+        <f t="shared" si="1"/>
+        <v>0.82575044321533908</v>
+      </c>
+      <c r="O25" s="5">
+        <f t="shared" si="2"/>
+        <v>-9.2349999999999988E-2</v>
+      </c>
+      <c r="P25" s="9">
+        <f t="shared" si="3"/>
+        <v>0.11711245567907602</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>34</v>
       </c>
@@ -1444,25 +1913,42 @@
         <v>2</v>
       </c>
       <c r="E26" s="5">
-        <v>0.125</v>
-      </c>
-      <c r="F26">
+        <v>0.18340799999999999</v>
+      </c>
+      <c r="F26" s="7">
         <v>751434.75</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="9">
         <v>12</v>
       </c>
       <c r="H26">
         <v>5</v>
       </c>
       <c r="I26" s="5">
-        <v>0.125</v>
-      </c>
-      <c r="J26">
+        <v>1.6742E-2</v>
+      </c>
+      <c r="J26" s="7">
         <v>500956.5</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K26" s="12"/>
+      <c r="L26" s="9">
+        <f t="shared" si="0"/>
+        <v>0.70215477790985847</v>
+      </c>
+      <c r="M26" s="9">
+        <f t="shared" si="1"/>
+        <v>0.81819579145095434</v>
+      </c>
+      <c r="O26" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.16666599999999998</v>
+      </c>
+      <c r="P26" s="9">
+        <f t="shared" si="3"/>
+        <v>0.11604101354109586</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>35</v>
       </c>
@@ -1476,25 +1962,42 @@
         <v>0</v>
       </c>
       <c r="E27" s="5">
-        <v>0</v>
-      </c>
-      <c r="F27">
+        <v>0.44512600000000002</v>
+      </c>
+      <c r="F27" s="7">
         <v>994416</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="9">
         <v>2</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27" s="5">
-        <v>0</v>
-      </c>
-      <c r="J27">
+        <v>5.4873999999999999E-2</v>
+      </c>
+      <c r="J27" s="7">
         <v>497208</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K27" s="12"/>
+      <c r="L27" s="9">
+        <f t="shared" si="0"/>
+        <v>0.53058629386494183</v>
+      </c>
+      <c r="M27" s="9">
+        <f t="shared" si="1"/>
+        <v>0.82436424997184277</v>
+      </c>
+      <c r="O27" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.39025200000000004</v>
+      </c>
+      <c r="P27" s="9">
+        <f t="shared" si="3"/>
+        <v>0.29377795610690094</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>36</v>
       </c>
@@ -1508,25 +2011,42 @@
         <v>0</v>
       </c>
       <c r="E28" s="5">
-        <v>0.33333299999999999</v>
-      </c>
-      <c r="F28">
+        <v>0.35758400000000001</v>
+      </c>
+      <c r="F28" s="7">
         <v>610608.33333299996</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="9">
         <v>4</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28" s="5">
-        <v>0.33333299999999999</v>
-      </c>
-      <c r="J28">
+        <v>0.107584</v>
+      </c>
+      <c r="J28" s="7">
         <v>457956.25</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K28" s="12"/>
+      <c r="L28" s="9">
+        <f t="shared" si="0"/>
+        <v>0.86409482346887079</v>
+      </c>
+      <c r="M28" s="9">
+        <f t="shared" si="1"/>
+        <v>0.89502108552945836</v>
+      </c>
+      <c r="O28" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.25</v>
+      </c>
+      <c r="P28" s="9">
+        <f t="shared" si="3"/>
+        <v>3.0926262060587573E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>37</v>
       </c>
@@ -1540,25 +2060,42 @@
         <v>2</v>
       </c>
       <c r="E29" s="5">
-        <v>0</v>
-      </c>
-      <c r="F29">
+        <v>2.1570000000000001E-3</v>
+      </c>
+      <c r="F29" s="7">
         <v>677358</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="9">
         <v>5</v>
       </c>
       <c r="H29">
         <v>2</v>
       </c>
       <c r="I29" s="5">
-        <v>0</v>
-      </c>
-      <c r="J29">
+        <v>9.7842999999999999E-2</v>
+      </c>
+      <c r="J29" s="7">
         <v>541886.4</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K29" s="12"/>
+      <c r="L29" s="9">
+        <f t="shared" si="0"/>
+        <v>0.77894333572497854</v>
+      </c>
+      <c r="M29" s="9">
+        <f t="shared" si="1"/>
+        <v>0.75639562092719059</v>
+      </c>
+      <c r="O29" s="5">
+        <f t="shared" si="2"/>
+        <v>9.5685999999999993E-2</v>
+      </c>
+      <c r="P29" s="9">
+        <f t="shared" si="3"/>
+        <v>-2.2547714797787943E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>38</v>
       </c>
@@ -1572,25 +2109,42 @@
         <v>2</v>
       </c>
       <c r="E30" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="F30">
+        <v>0.47755799999999998</v>
+      </c>
+      <c r="F30" s="7">
         <v>660722.5</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="9">
         <v>3</v>
       </c>
       <c r="H30">
         <v>2</v>
       </c>
       <c r="I30" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="J30">
+        <v>0.14422499999999999</v>
+      </c>
+      <c r="J30" s="7">
         <v>440481.66666699998</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K30" s="12"/>
+      <c r="L30" s="9">
+        <f t="shared" si="0"/>
+        <v>0.79855536931162474</v>
+      </c>
+      <c r="M30" s="9">
+        <f t="shared" si="1"/>
+        <v>0.93052794478700929</v>
+      </c>
+      <c r="O30" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.33333299999999999</v>
+      </c>
+      <c r="P30" s="9">
+        <f t="shared" si="3"/>
+        <v>0.13197257547538455</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>39</v>
       </c>
@@ -1604,25 +2158,42 @@
         <v>6</v>
       </c>
       <c r="E31" s="5">
-        <v>8.3333000000000004E-2</v>
-      </c>
-      <c r="F31">
+        <v>5.6437000000000001E-2</v>
+      </c>
+      <c r="F31" s="7">
         <v>733958.41666700004</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="9">
         <v>17</v>
       </c>
       <c r="H31">
         <v>9</v>
       </c>
       <c r="I31" s="5">
-        <v>8.3333000000000004E-2</v>
-      </c>
-      <c r="J31">
+        <v>2.7025E-2</v>
+      </c>
+      <c r="J31" s="7">
         <v>518088.29411800002</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K31" s="12"/>
+      <c r="L31" s="9">
+        <f t="shared" si="0"/>
+        <v>0.71887383265663263</v>
+      </c>
+      <c r="M31" s="9">
+        <f t="shared" si="1"/>
+        <v>0.79114024511552739</v>
+      </c>
+      <c r="O31" s="5">
+        <f t="shared" si="2"/>
+        <v>-2.9412000000000001E-2</v>
+      </c>
+      <c r="P31" s="9">
+        <f t="shared" si="3"/>
+        <v>7.2266412458894758E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>40</v>
       </c>
@@ -1636,25 +2207,42 @@
         <v>2</v>
       </c>
       <c r="E32" s="5">
-        <v>0</v>
-      </c>
-      <c r="F32">
+        <v>0.115116</v>
+      </c>
+      <c r="F32" s="7">
         <v>689091</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="9">
         <v>4</v>
       </c>
       <c r="H32">
         <v>2</v>
       </c>
       <c r="I32" s="5">
-        <v>0</v>
-      </c>
-      <c r="J32">
+        <v>5.1551E-2</v>
+      </c>
+      <c r="J32" s="7">
         <v>516818.25</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K32" s="12"/>
+      <c r="L32" s="9">
+        <f t="shared" si="0"/>
+        <v>0.76568043988384693</v>
+      </c>
+      <c r="M32" s="9">
+        <f t="shared" si="1"/>
+        <v>0.79308441603987478</v>
+      </c>
+      <c r="O32" s="5">
+        <f t="shared" si="2"/>
+        <v>-6.3564999999999997E-2</v>
+      </c>
+      <c r="P32" s="9">
+        <f t="shared" si="3"/>
+        <v>2.7403976156027854E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>41</v>
       </c>
@@ -1668,25 +2256,42 @@
         <v>21</v>
       </c>
       <c r="E33" s="5">
-        <v>7.4074000000000001E-2</v>
-      </c>
-      <c r="F33">
+        <v>9.2257000000000006E-2</v>
+      </c>
+      <c r="F33" s="7">
         <v>719298.33333299996</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="9">
         <v>38</v>
       </c>
       <c r="H33">
         <v>26</v>
       </c>
       <c r="I33" s="5">
-        <v>7.4074000000000001E-2</v>
-      </c>
-      <c r="J33">
+        <v>1.31E-3</v>
+      </c>
+      <c r="J33" s="7">
         <v>511080.394737</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K33" s="12"/>
+      <c r="L33" s="9">
+        <f t="shared" si="0"/>
+        <v>0.73352526420457609</v>
+      </c>
+      <c r="M33" s="9">
+        <f t="shared" si="1"/>
+        <v>0.80198830599033821</v>
+      </c>
+      <c r="O33" s="5">
+        <f t="shared" si="2"/>
+        <v>-9.0947E-2</v>
+      </c>
+      <c r="P33" s="9">
+        <f t="shared" si="3"/>
+        <v>6.8463041785762124E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>42</v>
       </c>
@@ -1700,25 +2305,42 @@
         <v>4</v>
       </c>
       <c r="E34" s="5">
-        <v>0.230769</v>
-      </c>
-      <c r="F34">
+        <v>0.201628</v>
+      </c>
+      <c r="F34" s="7">
         <v>735829.30769199994</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="9">
         <v>19</v>
       </c>
       <c r="H34">
         <v>10</v>
       </c>
       <c r="I34" s="5">
-        <v>0.230769</v>
-      </c>
-      <c r="J34">
+        <v>1.6995E-2</v>
+      </c>
+      <c r="J34" s="7">
         <v>503462.15789500001</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K34" s="12"/>
+      <c r="L34" s="9">
+        <f t="shared" si="0"/>
+        <v>0.71704605196406535</v>
+      </c>
+      <c r="M34" s="9">
+        <f t="shared" si="1"/>
+        <v>0.81412375006242865</v>
+      </c>
+      <c r="O34" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.18463299999999999</v>
+      </c>
+      <c r="P34" s="9">
+        <f t="shared" si="3"/>
+        <v>9.7077698098363308E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>43</v>
       </c>
@@ -1732,25 +2354,42 @@
         <v>0</v>
       </c>
       <c r="E35" s="5">
-        <v>0</v>
-      </c>
-      <c r="F35">
+        <v>0.43171700000000002</v>
+      </c>
+      <c r="F35" s="7">
         <v>675905</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="9">
         <v>1</v>
       </c>
       <c r="H35">
         <v>0</v>
       </c>
       <c r="I35" s="5">
+        <v>0.43171700000000002</v>
+      </c>
+      <c r="J35" s="7">
+        <v>675905</v>
+      </c>
+      <c r="K35" s="12"/>
+      <c r="L35" s="9">
+        <f t="shared" si="0"/>
+        <v>0.7806178383056791</v>
+      </c>
+      <c r="M35" s="9">
+        <f t="shared" si="1"/>
+        <v>0.60641732196092646</v>
+      </c>
+      <c r="O35" s="5">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J35">
-        <v>675905</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="P35" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.17420051634475264</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>44</v>
       </c>
@@ -1764,25 +2403,42 @@
         <v>4</v>
       </c>
       <c r="E36" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="F36">
+        <v>0.229712</v>
+      </c>
+      <c r="F36" s="7">
         <v>723030.9375</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="9">
         <v>23</v>
       </c>
       <c r="H36">
         <v>11</v>
       </c>
       <c r="I36" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="J36">
+        <v>1.451E-3</v>
+      </c>
+      <c r="J36" s="7">
         <v>502978.04347799998</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K36" s="12"/>
+      <c r="L36" s="9">
+        <f t="shared" si="0"/>
+        <v>0.72973848370077521</v>
+      </c>
+      <c r="M36" s="9">
+        <f t="shared" si="1"/>
+        <v>0.81490734101582707</v>
+      </c>
+      <c r="O36" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.22826099999999999</v>
+      </c>
+      <c r="P36" s="9">
+        <f t="shared" si="3"/>
+        <v>8.516885731505186E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>45</v>
       </c>
@@ -1796,25 +2452,42 @@
         <v>0</v>
       </c>
       <c r="E37" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="F37">
+        <v>0.32380500000000001</v>
+      </c>
+      <c r="F37" s="7">
         <v>752976.4</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="9">
         <v>7</v>
       </c>
       <c r="H37">
         <v>2</v>
       </c>
       <c r="I37" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="J37">
+        <v>3.8089999999999999E-2</v>
+      </c>
+      <c r="J37" s="7">
         <v>537840.285714</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K37" s="12"/>
+      <c r="L37" s="9">
+        <f t="shared" si="0"/>
+        <v>0.70071718051189913</v>
+      </c>
+      <c r="M37" s="9">
+        <f t="shared" si="1"/>
+        <v>0.76208590335673843</v>
+      </c>
+      <c r="O37" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.285715</v>
+      </c>
+      <c r="P37" s="9">
+        <f t="shared" si="3"/>
+        <v>6.1368722844839296E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>46</v>
       </c>
@@ -1828,25 +2501,42 @@
         <v>4</v>
       </c>
       <c r="E38" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="F38">
+        <v>0.217557</v>
+      </c>
+      <c r="F38" s="7">
         <v>769721.2</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="9">
         <v>8</v>
       </c>
       <c r="H38">
         <v>5</v>
       </c>
       <c r="I38" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="J38">
+        <v>4.2556999999999998E-2</v>
+      </c>
+      <c r="J38" s="7">
         <v>481075.75</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K38" s="12"/>
+      <c r="L38" s="9">
+        <f t="shared" si="0"/>
+        <v>0.6854735195029058</v>
+      </c>
+      <c r="M38" s="9">
+        <f t="shared" si="1"/>
+        <v>0.85200823363056655</v>
+      </c>
+      <c r="O38" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.17499999999999999</v>
+      </c>
+      <c r="P38" s="9">
+        <f t="shared" si="3"/>
+        <v>0.16653471412766074</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>47</v>
       </c>
@@ -1860,25 +2550,42 @@
         <v>5</v>
       </c>
       <c r="E39" s="5">
-        <v>0.222222</v>
-      </c>
-      <c r="F39">
+        <v>0.22980500000000001</v>
+      </c>
+      <c r="F39" s="7">
         <v>707494.72222200001</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="9">
         <v>25</v>
       </c>
       <c r="H39">
         <v>12</v>
       </c>
       <c r="I39" s="5">
-        <v>0.222222</v>
-      </c>
-      <c r="J39">
+        <v>2.7583E-2</v>
+      </c>
+      <c r="J39" s="7">
         <v>509396.2</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K39" s="12"/>
+      <c r="L39" s="9">
+        <f t="shared" si="0"/>
+        <v>0.74576316038501922</v>
+      </c>
+      <c r="M39" s="9">
+        <f t="shared" si="1"/>
+        <v>0.80463988541728426</v>
+      </c>
+      <c r="O39" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.20222200000000001</v>
+      </c>
+      <c r="P39" s="9">
+        <f t="shared" si="3"/>
+        <v>5.8876725032265043E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>48</v>
       </c>
@@ -1892,25 +2599,42 @@
         <v>2</v>
       </c>
       <c r="E40" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="F40">
+        <v>0.41034999999999999</v>
+      </c>
+      <c r="F40" s="7">
         <v>527623.5</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="9">
         <v>2</v>
       </c>
       <c r="H40">
         <v>2</v>
       </c>
       <c r="I40" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="J40">
+        <v>0.41034999999999999</v>
+      </c>
+      <c r="J40" s="7">
         <v>527623.5</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K40" s="12"/>
+      <c r="L40" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M40" s="9">
+        <f t="shared" si="1"/>
+        <v>0.77684276761743931</v>
+      </c>
+      <c r="O40" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P40" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.22315723238256069</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>49</v>
       </c>
@@ -1924,25 +2648,42 @@
         <v>1</v>
       </c>
       <c r="E41" s="5">
-        <v>0.28571400000000002</v>
-      </c>
-      <c r="F41">
+        <v>0.27330399999999999</v>
+      </c>
+      <c r="F41" s="7">
         <v>663710.714286</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="9">
         <v>9</v>
       </c>
       <c r="H41">
         <v>3</v>
       </c>
       <c r="I41" s="5">
-        <v>0.28571400000000002</v>
-      </c>
-      <c r="J41">
+        <v>8.2827999999999999E-2</v>
+      </c>
+      <c r="J41" s="7">
         <v>516219.44444400002</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K41" s="12"/>
+      <c r="L41" s="9">
+        <f t="shared" si="0"/>
+        <v>0.79496004606103354</v>
+      </c>
+      <c r="M41" s="9">
+        <f t="shared" si="1"/>
+        <v>0.79400438013617725</v>
+      </c>
+      <c r="O41" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.19047599999999998</v>
+      </c>
+      <c r="P41" s="9">
+        <f t="shared" si="3"/>
+        <v>-9.5566592485629709E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>50</v>
       </c>
@@ -1956,25 +2697,42 @@
         <v>0</v>
       </c>
       <c r="E42" s="5">
-        <v>0</v>
-      </c>
-      <c r="F42">
+        <v>0.42550300000000002</v>
+      </c>
+      <c r="F42" s="7">
         <v>819761</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="9">
         <v>2</v>
       </c>
       <c r="H42">
         <v>1</v>
       </c>
       <c r="I42" s="5">
-        <v>0</v>
-      </c>
-      <c r="J42">
+        <v>7.4496999999999994E-2</v>
+      </c>
+      <c r="J42" s="7">
         <v>409880.5</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K42" s="12"/>
+      <c r="L42" s="9">
+        <f t="shared" si="0"/>
+        <v>0.64363088753917297</v>
+      </c>
+      <c r="M42" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O42" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.35100600000000004</v>
+      </c>
+      <c r="P42" s="9">
+        <f t="shared" si="3"/>
+        <v>0.35636911246082703</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>51</v>
       </c>
@@ -1988,25 +2746,42 @@
         <v>2</v>
       </c>
       <c r="E43" s="5">
-        <v>0.222222</v>
-      </c>
-      <c r="F43">
+        <v>0.16775399999999999</v>
+      </c>
+      <c r="F43" s="7">
         <v>708381.22222200001</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="9">
         <v>12</v>
       </c>
       <c r="H43">
         <v>5</v>
       </c>
       <c r="I43" s="5">
-        <v>0.222222</v>
-      </c>
-      <c r="J43">
+        <v>2.6689999999999998E-2</v>
+      </c>
+      <c r="J43" s="7">
         <v>531285.91666700004</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K43" s="12"/>
+      <c r="L43" s="9">
+        <f t="shared" si="0"/>
+        <v>0.74482987895273112</v>
+      </c>
+      <c r="M43" s="9">
+        <f t="shared" si="1"/>
+        <v>0.77148760609234324</v>
+      </c>
+      <c r="O43" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.14106399999999999</v>
+      </c>
+      <c r="P43" s="9">
+        <f t="shared" si="3"/>
+        <v>2.665772713961212E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
@@ -2020,25 +2795,42 @@
         <v>12</v>
       </c>
       <c r="E44" s="5">
-        <v>8.3333000000000004E-2</v>
-      </c>
-      <c r="F44">
+        <v>9.0479000000000004E-2</v>
+      </c>
+      <c r="F44" s="7">
         <v>701900.5</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="9">
         <v>49</v>
       </c>
       <c r="H44">
         <v>21</v>
       </c>
       <c r="I44" s="5">
-        <v>8.3333000000000004E-2</v>
-      </c>
-      <c r="J44">
+        <v>4.7590000000000002E-3</v>
+      </c>
+      <c r="J44" s="7">
         <v>515682</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K44" s="12"/>
+      <c r="L44" s="9">
+        <f t="shared" si="0"/>
+        <v>0.7517069727119442</v>
+      </c>
+      <c r="M44" s="9">
+        <f t="shared" si="1"/>
+        <v>0.79483189252291142</v>
+      </c>
+      <c r="O44" s="5">
+        <f t="shared" si="2"/>
+        <v>-8.5720000000000005E-2</v>
+      </c>
+      <c r="P44" s="9">
+        <f t="shared" si="3"/>
+        <v>4.3124919810967222E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
@@ -2052,25 +2844,42 @@
         <v>1</v>
       </c>
       <c r="E45" s="5">
-        <v>0</v>
-      </c>
-      <c r="F45">
+        <v>8.3588999999999997E-2</v>
+      </c>
+      <c r="F45" s="7">
         <v>692691.25</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="9">
         <v>5</v>
       </c>
       <c r="H45">
         <v>2</v>
       </c>
       <c r="I45" s="5">
-        <v>0</v>
-      </c>
-      <c r="J45">
+        <v>6.6410999999999998E-2</v>
+      </c>
+      <c r="J45" s="7">
         <v>554153</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K45" s="12"/>
+      <c r="L45" s="9">
+        <f t="shared" si="0"/>
+        <v>0.76170082991520394</v>
+      </c>
+      <c r="M45" s="9">
+        <f t="shared" si="1"/>
+        <v>0.73965222600978431</v>
+      </c>
+      <c r="O45" s="5">
+        <f t="shared" si="2"/>
+        <v>-1.7177999999999999E-2</v>
+      </c>
+      <c r="P45" s="9">
+        <f t="shared" si="3"/>
+        <v>-2.2048603905419628E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
@@ -2084,25 +2893,42 @@
         <v>1</v>
       </c>
       <c r="E46" s="5">
-        <v>0</v>
-      </c>
-      <c r="F46">
+        <v>0.24459400000000001</v>
+      </c>
+      <c r="F46" s="7">
         <v>630337</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="9">
         <v>1</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46" s="5">
+        <v>0.24459400000000001</v>
+      </c>
+      <c r="J46" s="7">
+        <v>630337</v>
+      </c>
+      <c r="K46" s="12"/>
+      <c r="L46" s="9">
+        <f t="shared" si="0"/>
+        <v>0.83704986380301327</v>
+      </c>
+      <c r="M46" s="9">
+        <f t="shared" si="1"/>
+        <v>0.65025613283053352</v>
+      </c>
+      <c r="O46" s="5">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J46">
-        <v>630337</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="P46" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.18679373097247975</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
@@ -2116,25 +2942,42 @@
         <v>3</v>
       </c>
       <c r="E47" s="5">
-        <v>0.18181800000000001</v>
-      </c>
-      <c r="F47">
+        <v>0.217669</v>
+      </c>
+      <c r="F47" s="7">
         <v>730703.27272699995</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="9">
         <v>16</v>
       </c>
       <c r="H47">
         <v>8</v>
       </c>
       <c r="I47" s="5">
-        <v>0.18181800000000001</v>
-      </c>
-      <c r="J47">
+        <v>9.6039999999999997E-3</v>
+      </c>
+      <c r="J47" s="7">
         <v>502358.5</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K47" s="12"/>
+      <c r="L47" s="9">
+        <f t="shared" si="0"/>
+        <v>0.72207627869367275</v>
+      </c>
+      <c r="M47" s="9">
+        <f t="shared" si="1"/>
+        <v>0.8159123414852143</v>
+      </c>
+      <c r="O47" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.208065</v>
+      </c>
+      <c r="P47" s="9">
+        <f t="shared" si="3"/>
+        <v>9.3836062791541552E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
@@ -2148,25 +2991,42 @@
         <v>6</v>
       </c>
       <c r="E48" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="F48">
+        <v>5.5562E-2</v>
+      </c>
+      <c r="F48" s="7">
         <v>675336.9</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="9">
         <v>13</v>
       </c>
       <c r="H48">
         <v>7</v>
       </c>
       <c r="I48" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="J48">
+        <v>5.9769999999999997E-3</v>
+      </c>
+      <c r="J48" s="7">
         <v>519489.92307700001</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K48" s="12"/>
+      <c r="L48" s="9">
+        <f t="shared" si="0"/>
+        <v>0.78127450165983825</v>
+      </c>
+      <c r="M48" s="9">
+        <f t="shared" si="1"/>
+        <v>0.7890056799797569</v>
+      </c>
+      <c r="O48" s="5">
+        <f t="shared" si="2"/>
+        <v>-4.9585000000000004E-2</v>
+      </c>
+      <c r="P48" s="9">
+        <f t="shared" si="3"/>
+        <v>7.7311783199186523E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
@@ -2180,25 +3040,42 @@
         <v>1</v>
       </c>
       <c r="E49" s="5">
-        <v>0</v>
-      </c>
-      <c r="F49">
+        <v>6.7539000000000002E-2</v>
+      </c>
+      <c r="F49" s="7">
         <v>619938.33333299996</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="9">
         <v>4</v>
       </c>
       <c r="H49">
         <v>2</v>
       </c>
       <c r="I49" s="5">
-        <v>0</v>
-      </c>
-      <c r="J49">
+        <v>9.9127999999999994E-2</v>
+      </c>
+      <c r="J49" s="7">
         <v>464953.75</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K49" s="12"/>
+      <c r="L49" s="9">
+        <f t="shared" si="0"/>
+        <v>0.85109029661598123</v>
+      </c>
+      <c r="M49" s="9">
+        <f t="shared" si="1"/>
+        <v>0.88155112202020092</v>
+      </c>
+      <c r="O49" s="5">
+        <f t="shared" si="2"/>
+        <v>3.1588999999999992E-2</v>
+      </c>
+      <c r="P49" s="9">
+        <f t="shared" si="3"/>
+        <v>3.0460825404219682E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
@@ -2212,25 +3089,42 @@
         <v>3</v>
       </c>
       <c r="E50" s="5">
-        <v>0.125</v>
-      </c>
-      <c r="F50">
+        <v>0.13255500000000001</v>
+      </c>
+      <c r="F50" s="7">
         <v>712278.75</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="9">
         <v>11</v>
       </c>
       <c r="H50">
         <v>6</v>
       </c>
       <c r="I50" s="5">
-        <v>0.125</v>
-      </c>
-      <c r="J50">
+        <v>3.7899000000000002E-2</v>
+      </c>
+      <c r="J50" s="7">
         <v>518020.90909099998</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K50" s="12"/>
+      <c r="L50" s="9">
+        <f t="shared" si="0"/>
+        <v>0.74075423420957032</v>
+      </c>
+      <c r="M50" s="9">
+        <f t="shared" si="1"/>
+        <v>0.79124315796294797</v>
+      </c>
+      <c r="O50" s="5">
+        <f t="shared" si="2"/>
+        <v>-9.4656000000000004E-2</v>
+      </c>
+      <c r="P50" s="9">
+        <f t="shared" si="3"/>
+        <v>5.0488923753377657E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
@@ -2244,22 +3138,162 @@
         <v>0</v>
       </c>
       <c r="E51" s="5">
-        <v>0</v>
-      </c>
-      <c r="F51">
+        <v>0.256994</v>
+      </c>
+      <c r="F51" s="7">
         <v>568300</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="9">
         <v>1</v>
       </c>
       <c r="H51">
         <v>0</v>
       </c>
       <c r="I51" s="5">
+        <v>0.256994</v>
+      </c>
+      <c r="J51" s="7">
+        <v>568300</v>
+      </c>
+      <c r="K51" s="12"/>
+      <c r="L51" s="9">
+        <f t="shared" si="0"/>
+        <v>0.9284242477564667</v>
+      </c>
+      <c r="M51" s="9">
+        <f t="shared" si="1"/>
+        <v>0.7212396621502728</v>
+      </c>
+      <c r="O51" s="5">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J51">
-        <v>568300</v>
+      <c r="P51" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.20718458560619391</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K52" s="14"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D53" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E53" s="5">
+        <f>MIN(E$2:E$51)</f>
+        <v>2.1570000000000001E-3</v>
+      </c>
+      <c r="I53" s="5">
+        <f>MIN(I$2:I$51)</f>
+        <v>9.2500000000000004E-4</v>
+      </c>
+      <c r="K53" s="14"/>
+      <c r="L53" s="9">
+        <f>MIN(L$2:L$51)</f>
+        <v>0.53058629386494183</v>
+      </c>
+      <c r="M53" s="9">
+        <f>MIN(M$2:M$51)</f>
+        <v>0.56807683192358382</v>
+      </c>
+      <c r="O53" s="5">
+        <f>MIN(O$2:O$51)</f>
+        <v>-0.39025200000000004</v>
+      </c>
+      <c r="P53" s="9">
+        <f>MIN(P$2:P$51)</f>
+        <v>-0.22315723238256069</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D54" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E54" s="5">
+        <f>MAX(E$2:E$51)</f>
+        <v>0.47755799999999998</v>
+      </c>
+      <c r="I54" s="5">
+        <f>MAX(I$2:I$51)</f>
+        <v>0.43171700000000002</v>
+      </c>
+      <c r="K54" s="14"/>
+      <c r="L54" s="9">
+        <f>MAX(L$2:L$51)</f>
+        <v>1</v>
+      </c>
+      <c r="M54" s="9">
+        <f>MAX(M$2:M$51)</f>
+        <v>1</v>
+      </c>
+      <c r="O54" s="5">
+        <f>MAX(O$2:O$51)</f>
+        <v>9.5685999999999993E-2</v>
+      </c>
+      <c r="P54" s="9">
+        <f>MAX(P$2:P$51)</f>
+        <v>0.35636911246082703</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D55" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E55" s="5">
+        <f>AVERAGE(E$2:E$51)</f>
+        <v>0.22051152000000004</v>
+      </c>
+      <c r="I55" s="5">
+        <f>AVERAGE(I$2:I$51)</f>
+        <v>6.7686340000000011E-2</v>
+      </c>
+      <c r="K55" s="14"/>
+      <c r="L55" s="9">
+        <f>AVERAGE(L$2:L$51)</f>
+        <v>0.74684594900978496</v>
+      </c>
+      <c r="M55" s="9">
+        <f>AVERAGE(M$2:M$51)</f>
+        <v>0.80166610392298088</v>
+      </c>
+      <c r="O55" s="5">
+        <f>AVERAGE(O$2:O$51)</f>
+        <v>-0.15282518</v>
+      </c>
+      <c r="P55" s="9">
+        <f>AVERAGE(P$2:P$51)</f>
+        <v>5.4820154913195675E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D56" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E56" s="5">
+        <f>MEDIAN(E$2:E$51)</f>
+        <v>0.21903250000000002</v>
+      </c>
+      <c r="I56" s="5">
+        <f>MEDIAN(I$2:I$51)</f>
+        <v>3.2167000000000001E-2</v>
+      </c>
+      <c r="K56" s="14"/>
+      <c r="L56" s="9">
+        <f>MEDIAN(L$2:L$51)</f>
+        <v>0.73937922905968811</v>
+      </c>
+      <c r="M56" s="9">
+        <f>MEDIAN(M$2:M$51)</f>
+        <v>0.8011775090377391</v>
+      </c>
+      <c r="O56" s="5">
+        <f>MEDIAN(O$2:O$51)</f>
+        <v>-0.1666665</v>
+      </c>
+      <c r="P56" s="9">
+        <f>MEDIAN(P$2:P$51)</f>
+        <v>5.8580439320570554E-2</v>
       </c>
     </row>
   </sheetData>

--- a/results/2012_reps_by_state(1).xlsx
+++ b/results/2012_reps_by_state(1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/MM2/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE893A9-F6FB-5C40-845A-6793D6B32A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7E8170-F9EE-3643-B92C-A4436F6CC5F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="500" windowWidth="27300" windowHeight="16940" xr2:uid="{24A61AB0-1BF7-FA49-BDC3-BAB168A5D905}"/>
+    <workbookView xWindow="10780" yWindow="8640" windowWidth="27300" windowHeight="16940" xr2:uid="{24A61AB0-1BF7-FA49-BDC3-BAB168A5D905}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -313,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -322,15 +322,14 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -651,11 +650,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB9AFDC-6B0A-F248-B0C7-7FF8E4A39719}">
   <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P40" sqref="P40"/>
+      <selection pane="bottomRight" activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -666,13 +665,13 @@
     <col min="4" max="4" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.1640625" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.1640625" style="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.1640625" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.83203125" customWidth="1"/>
     <col min="12" max="13" width="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.83203125" style="14" customWidth="1"/>
+    <col min="14" max="14" width="5.83203125" customWidth="1"/>
     <col min="15" max="15" width="7.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
   </cols>
@@ -696,7 +695,7 @@
       <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -708,14 +707,13 @@
       <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="11"/>
+      <c r="K1" s="10"/>
       <c r="L1" s="3" t="s">
         <v>60</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="N1" s="13"/>
       <c r="O1" s="4" t="s">
         <v>66</v>
       </c>
@@ -742,7 +740,7 @@
       <c r="F2" s="7">
         <v>686140.285714</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="13">
         <v>9</v>
       </c>
       <c r="H2">
@@ -754,12 +752,12 @@
       <c r="J2" s="7">
         <v>533664.66666700004</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="9">
+      <c r="K2" s="11"/>
+      <c r="L2" s="8">
         <f>MIN(F$2:F$51)/F2</f>
         <v>0.76897321289181142</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="8">
         <f>MIN(J$2:J$51)/J2</f>
         <v>0.76804878719047787</v>
       </c>
@@ -767,7 +765,7 @@
         <f>I2-E2</f>
         <v>-0.19047600000000001</v>
       </c>
-      <c r="P2" s="9">
+      <c r="P2" s="8">
         <f>M2-L2</f>
         <v>-9.2442570133355328E-4</v>
       </c>
@@ -791,7 +789,7 @@
       <c r="F3" s="7">
         <v>721523</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="13">
         <v>1</v>
       </c>
       <c r="H3">
@@ -803,12 +801,12 @@
       <c r="J3" s="7">
         <v>721523</v>
       </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="9">
+      <c r="K3" s="11"/>
+      <c r="L3" s="8">
         <f t="shared" ref="L3:L51" si="0">MIN(F$2:F$51)/F3</f>
         <v>0.73126359104283578</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="8">
         <f t="shared" ref="M3:M51" si="1">MIN(J$2:J$51)/J3</f>
         <v>0.56807683192358382</v>
       </c>
@@ -816,7 +814,7 @@
         <f t="shared" ref="O3:O51" si="2">I3-E3</f>
         <v>0</v>
       </c>
-      <c r="P3" s="9">
+      <c r="P3" s="8">
         <f t="shared" ref="P3:P51" si="3">M3-L3</f>
         <v>-0.16318675911925196</v>
       </c>
@@ -840,7 +838,7 @@
       <c r="F4" s="7">
         <v>712522.22222200001</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="13">
         <v>12</v>
       </c>
       <c r="H4">
@@ -852,12 +850,12 @@
       <c r="J4" s="7">
         <v>534391.66666700004</v>
       </c>
-      <c r="K4" s="12"/>
-      <c r="L4" s="9">
+      <c r="K4" s="11"/>
+      <c r="L4" s="8">
         <f t="shared" si="0"/>
         <v>0.74050111497520243</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="8">
         <f t="shared" si="1"/>
         <v>0.7670039141074636</v>
       </c>
@@ -865,7 +863,7 @@
         <f t="shared" si="2"/>
         <v>-5.6033000000000006E-2</v>
       </c>
-      <c r="P4" s="9">
+      <c r="P4" s="8">
         <f t="shared" si="3"/>
         <v>2.6502799132261168E-2</v>
       </c>
@@ -889,7 +887,7 @@
       <c r="F5" s="7">
         <v>731557.25</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="13">
         <v>6</v>
       </c>
       <c r="H5">
@@ -901,12 +899,12 @@
       <c r="J5" s="7">
         <v>487704.83333300002</v>
       </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="9">
+      <c r="K5" s="11"/>
+      <c r="L5" s="8">
         <f t="shared" si="0"/>
         <v>0.72123336895369428</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="8">
         <f t="shared" si="1"/>
         <v>0.84042738965463082</v>
       </c>
@@ -914,7 +912,7 @@
         <f t="shared" si="2"/>
         <v>-0.33333300000000005</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P5" s="8">
         <f t="shared" si="3"/>
         <v>0.11919402070093654</v>
       </c>
@@ -938,7 +936,7 @@
       <c r="F6" s="7">
         <v>704565.830189</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="13">
         <v>73</v>
       </c>
       <c r="H6">
@@ -950,12 +948,12 @@
       <c r="J6" s="7">
         <v>511534.09589</v>
       </c>
-      <c r="K6" s="12"/>
-      <c r="L6" s="9">
+      <c r="K6" s="11"/>
+      <c r="L6" s="8">
         <f t="shared" si="0"/>
         <v>0.7488633104141097</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="8">
         <f t="shared" si="1"/>
         <v>0.80127698875451003</v>
       </c>
@@ -963,7 +961,7 @@
         <f t="shared" si="2"/>
         <v>-0.12608999999999998</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P6" s="8">
         <f t="shared" si="3"/>
         <v>5.2413678340400338E-2</v>
       </c>
@@ -987,7 +985,7 @@
       <c r="F7" s="7">
         <v>720704.285714</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="13">
         <v>10</v>
       </c>
       <c r="H7">
@@ -999,12 +997,12 @@
       <c r="J7" s="7">
         <v>504493</v>
       </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="9">
+      <c r="K7" s="11"/>
+      <c r="L7" s="8">
         <f t="shared" si="0"/>
         <v>0.73209430061496672</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="8">
         <f t="shared" si="1"/>
         <v>0.8124602323520842</v>
       </c>
@@ -1012,7 +1010,7 @@
         <f t="shared" si="2"/>
         <v>-6.8717E-2</v>
       </c>
-      <c r="P7" s="9">
+      <c r="P7" s="8">
         <f t="shared" si="3"/>
         <v>8.036593173711748E-2</v>
       </c>
@@ -1036,7 +1034,7 @@
       <c r="F8" s="7">
         <v>716325.6</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="13">
         <v>7</v>
       </c>
       <c r="H8">
@@ -1048,12 +1046,12 @@
       <c r="J8" s="7">
         <v>511661.142857</v>
       </c>
-      <c r="K8" s="12"/>
-      <c r="L8" s="9">
+      <c r="K8" s="11"/>
+      <c r="L8" s="8">
         <f t="shared" si="0"/>
         <v>0.73656937571406078</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="8">
         <f t="shared" si="1"/>
         <v>0.80107802932096828</v>
       </c>
@@ -1061,7 +1059,7 @@
         <f t="shared" si="2"/>
         <v>-0.28571400000000002</v>
       </c>
-      <c r="P8" s="9">
+      <c r="P8" s="8">
         <f t="shared" si="3"/>
         <v>6.4508653606907496E-2</v>
       </c>
@@ -1085,7 +1083,7 @@
       <c r="F9" s="7">
         <v>900877</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="13">
         <v>2</v>
       </c>
       <c r="H9">
@@ -1097,12 +1095,12 @@
       <c r="J9" s="7">
         <v>450438.5</v>
       </c>
-      <c r="K9" s="12"/>
-      <c r="L9" s="9">
+      <c r="K9" s="11"/>
+      <c r="L9" s="8">
         <f t="shared" si="0"/>
         <v>0.58567762302733894</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="8">
         <f t="shared" si="1"/>
         <v>0.90995885120832254</v>
       </c>
@@ -1110,7 +1108,7 @@
         <f t="shared" si="2"/>
         <v>-0.18349000000000001</v>
       </c>
-      <c r="P9" s="9">
+      <c r="P9" s="8">
         <f t="shared" si="3"/>
         <v>0.32428122818098359</v>
       </c>
@@ -1134,7 +1132,7 @@
       <c r="F10" s="7">
         <v>700028.62962999998</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="13">
         <v>37</v>
       </c>
       <c r="H10">
@@ -1146,12 +1144,12 @@
       <c r="J10" s="7">
         <v>510831.70270299999</v>
       </c>
-      <c r="K10" s="12"/>
-      <c r="L10" s="9">
+      <c r="K10" s="11"/>
+      <c r="L10" s="8">
         <f t="shared" si="0"/>
         <v>0.7537170305147024</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="8">
         <f t="shared" si="1"/>
         <v>0.80237874398000408</v>
       </c>
@@ -1159,7 +1157,7 @@
         <f t="shared" si="2"/>
         <v>-8.9090000000000003E-2</v>
       </c>
-      <c r="P10" s="9">
+      <c r="P10" s="8">
         <f t="shared" si="3"/>
         <v>4.8661713465301681E-2</v>
       </c>
@@ -1183,7 +1181,7 @@
       <c r="F11" s="7">
         <v>694826.142857</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="13">
         <v>19</v>
       </c>
       <c r="H11">
@@ -1195,12 +1193,12 @@
       <c r="J11" s="7">
         <v>511977.15789500001</v>
       </c>
-      <c r="K11" s="12"/>
-      <c r="L11" s="9">
+      <c r="K11" s="11"/>
+      <c r="L11" s="8">
         <f t="shared" si="0"/>
         <v>0.75936046077729191</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="8">
         <f t="shared" si="1"/>
         <v>0.80058356838658273</v>
       </c>
@@ -1208,7 +1206,7 @@
         <f t="shared" si="2"/>
         <v>-6.9789999999999991E-2</v>
       </c>
-      <c r="P11" s="9">
+      <c r="P11" s="8">
         <f t="shared" si="3"/>
         <v>4.1223107609290821E-2</v>
       </c>
@@ -1232,7 +1230,7 @@
       <c r="F12" s="7">
         <v>683431</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="13">
         <v>3</v>
       </c>
       <c r="H12">
@@ -1244,12 +1242,12 @@
       <c r="J12" s="7">
         <v>455620.66666699998</v>
       </c>
-      <c r="K12" s="12"/>
-      <c r="L12" s="9">
+      <c r="K12" s="11"/>
+      <c r="L12" s="8">
         <f t="shared" si="0"/>
         <v>0.77202160861886571</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="8">
         <f t="shared" si="1"/>
         <v>0.89960910464926269</v>
       </c>
@@ -1257,7 +1255,7 @@
         <f t="shared" si="2"/>
         <v>-0.31764100000000001</v>
       </c>
-      <c r="P12" s="9">
+      <c r="P12" s="8">
         <f t="shared" si="3"/>
         <v>0.12758749603039699</v>
       </c>
@@ -1281,7 +1279,7 @@
       <c r="F13" s="7">
         <v>786749.5</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="13">
         <v>3</v>
       </c>
       <c r="H13">
@@ -1293,12 +1291,12 @@
       <c r="J13" s="7">
         <v>524499.66666700004</v>
       </c>
-      <c r="K13" s="12"/>
-      <c r="L13" s="9">
+      <c r="K13" s="11"/>
+      <c r="L13" s="8">
         <f t="shared" si="0"/>
         <v>0.67063722315679897</v>
       </c>
-      <c r="M13" s="9">
+      <c r="M13" s="8">
         <f t="shared" si="1"/>
         <v>0.78146951475610626</v>
       </c>
@@ -1306,7 +1304,7 @@
         <f t="shared" si="2"/>
         <v>-0.33333299999999999</v>
       </c>
-      <c r="P13" s="9">
+      <c r="P13" s="8">
         <f t="shared" si="3"/>
         <v>0.1108322915993073</v>
       </c>
@@ -1330,7 +1328,7 @@
       <c r="F14" s="7">
         <v>714687.77777799999</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="13">
         <v>25</v>
       </c>
       <c r="H14">
@@ -1342,12 +1340,12 @@
       <c r="J14" s="7">
         <v>514575.2</v>
       </c>
-      <c r="K14" s="12"/>
-      <c r="L14" s="9">
+      <c r="K14" s="11"/>
+      <c r="L14" s="8">
         <f t="shared" si="0"/>
         <v>0.73825734314417379</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M14" s="8">
         <f t="shared" si="1"/>
         <v>0.79654149675304986</v>
       </c>
@@ -1355,7 +1353,7 @@
         <f t="shared" si="2"/>
         <v>-0.106667</v>
       </c>
-      <c r="P14" s="9">
+      <c r="P14" s="8">
         <f t="shared" si="3"/>
         <v>5.8284153608876066E-2</v>
       </c>
@@ -1379,7 +1377,7 @@
       <c r="F15" s="7">
         <v>722398</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="13">
         <v>13</v>
       </c>
       <c r="H15">
@@ -1391,12 +1389,12 @@
       <c r="J15" s="7">
         <v>500121.692308</v>
       </c>
-      <c r="K15" s="12"/>
-      <c r="L15" s="9">
+      <c r="K15" s="11"/>
+      <c r="L15" s="8">
         <f t="shared" si="0"/>
         <v>0.73037785265186228</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M15" s="8">
         <f t="shared" si="1"/>
         <v>0.81956153133140852</v>
       </c>
@@ -1404,7 +1402,7 @@
         <f t="shared" si="2"/>
         <v>-0.23236599999999999</v>
       </c>
-      <c r="P15" s="9">
+      <c r="P15" s="8">
         <f t="shared" si="3"/>
         <v>8.9183678679546241E-2</v>
       </c>
@@ -1428,7 +1426,7 @@
       <c r="F16" s="7">
         <v>763446.75</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="13">
         <v>6</v>
       </c>
       <c r="H16">
@@ -1440,12 +1438,12 @@
       <c r="J16" s="7">
         <v>508964.5</v>
       </c>
-      <c r="K16" s="12"/>
-      <c r="L16" s="9">
+      <c r="K16" s="11"/>
+      <c r="L16" s="8">
         <f t="shared" si="0"/>
         <v>0.69110714008540874</v>
       </c>
-      <c r="M16" s="9">
+      <c r="M16" s="8">
         <f t="shared" si="1"/>
         <v>0.80532237513618332</v>
       </c>
@@ -1453,7 +1451,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P16" s="9">
+      <c r="P16" s="8">
         <f t="shared" si="3"/>
         <v>0.11421523505077458</v>
       </c>
@@ -1477,7 +1475,7 @@
       <c r="F17" s="7">
         <v>715953.25</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="13">
         <v>6</v>
       </c>
       <c r="H17">
@@ -1489,12 +1487,12 @@
       <c r="J17" s="7">
         <v>477302.16666699998</v>
       </c>
-      <c r="K17" s="12"/>
-      <c r="L17" s="9">
+      <c r="K17" s="11"/>
+      <c r="L17" s="8">
         <f t="shared" si="0"/>
         <v>0.73695244766330759</v>
       </c>
-      <c r="M17" s="9">
+      <c r="M17" s="8">
         <f t="shared" si="1"/>
         <v>0.85874426856721531</v>
       </c>
@@ -1502,7 +1500,7 @@
         <f t="shared" si="2"/>
         <v>-0.33333400000000002</v>
       </c>
-      <c r="P17" s="9">
+      <c r="P17" s="8">
         <f t="shared" si="3"/>
         <v>0.12179182090390772</v>
       </c>
@@ -1526,7 +1524,7 @@
       <c r="F18" s="7">
         <v>725101</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="13">
         <v>8</v>
       </c>
       <c r="H18">
@@ -1538,12 +1536,12 @@
       <c r="J18" s="7">
         <v>543825.75</v>
       </c>
-      <c r="K18" s="12"/>
-      <c r="L18" s="9">
+      <c r="K18" s="11"/>
+      <c r="L18" s="8">
         <f t="shared" si="0"/>
         <v>0.72765518182984168</v>
       </c>
-      <c r="M18" s="9">
+      <c r="M18" s="8">
         <f t="shared" si="1"/>
         <v>0.75369822043182033</v>
       </c>
@@ -1551,7 +1549,7 @@
         <f t="shared" si="2"/>
         <v>-0.20833299999999999</v>
       </c>
-      <c r="P18" s="9">
+      <c r="P18" s="8">
         <f t="shared" si="3"/>
         <v>2.6043038601978652E-2</v>
       </c>
@@ -1575,7 +1573,7 @@
       <c r="F19" s="7">
         <v>758993.66666700004</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="13">
         <v>9</v>
       </c>
       <c r="H19">
@@ -1587,12 +1585,12 @@
       <c r="J19" s="7">
         <v>505995.77777799999</v>
       </c>
-      <c r="K19" s="12"/>
-      <c r="L19" s="9">
+      <c r="K19" s="11"/>
+      <c r="L19" s="8">
         <f t="shared" si="0"/>
         <v>0.6951619271303997</v>
       </c>
-      <c r="M19" s="9">
+      <c r="M19" s="8">
         <f t="shared" si="1"/>
         <v>0.8100472731213787</v>
       </c>
@@ -1600,7 +1598,7 @@
         <f t="shared" si="2"/>
         <v>-0.16666699999999998</v>
       </c>
-      <c r="P19" s="9">
+      <c r="P19" s="8">
         <f t="shared" si="3"/>
         <v>0.11488534599097899</v>
       </c>
@@ -1624,7 +1622,7 @@
       <c r="F20" s="7">
         <v>666537</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="13">
         <v>3</v>
       </c>
       <c r="H20">
@@ -1636,12 +1634,12 @@
       <c r="J20" s="7">
         <v>444358</v>
       </c>
-      <c r="K20" s="12"/>
-      <c r="L20" s="9">
+      <c r="K20" s="11"/>
+      <c r="L20" s="8">
         <f t="shared" si="0"/>
         <v>0.79158921410214289</v>
       </c>
-      <c r="M20" s="9">
+      <c r="M20" s="8">
         <f t="shared" si="1"/>
         <v>0.92241053384883365</v>
       </c>
@@ -1649,7 +1647,7 @@
         <f t="shared" si="2"/>
         <v>-0.33333299999999999</v>
       </c>
-      <c r="P20" s="9">
+      <c r="P20" s="8">
         <f t="shared" si="3"/>
         <v>0.13082131974669076</v>
       </c>
@@ -1673,7 +1671,7 @@
       <c r="F21" s="7">
         <v>723741.125</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="13">
         <v>11</v>
       </c>
       <c r="H21">
@@ -1685,12 +1683,12 @@
       <c r="J21" s="7">
         <v>526357.18181800004</v>
       </c>
-      <c r="K21" s="12"/>
-      <c r="L21" s="9">
+      <c r="K21" s="11"/>
+      <c r="L21" s="8">
         <f t="shared" si="0"/>
         <v>0.72902241115564625</v>
       </c>
-      <c r="M21" s="9">
+      <c r="M21" s="8">
         <f t="shared" si="1"/>
         <v>0.77871170786404409</v>
       </c>
@@ -1698,7 +1696,7 @@
         <f t="shared" si="2"/>
         <v>-0.202156</v>
       </c>
-      <c r="P21" s="9">
+      <c r="P21" s="8">
         <f t="shared" si="3"/>
         <v>4.9689296708397834E-2</v>
       </c>
@@ -1722,7 +1720,7 @@
       <c r="F22" s="7">
         <v>728849.33333299996</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="13">
         <v>13</v>
       </c>
       <c r="H22">
@@ -1734,12 +1732,12 @@
       <c r="J22" s="7">
         <v>504588</v>
       </c>
-      <c r="K22" s="12"/>
-      <c r="L22" s="9">
+      <c r="K22" s="11"/>
+      <c r="L22" s="8">
         <f t="shared" si="0"/>
         <v>0.72391298979063068</v>
       </c>
-      <c r="M22" s="9">
+      <c r="M22" s="8">
         <f t="shared" si="1"/>
         <v>0.81230726850420543</v>
       </c>
@@ -1747,7 +1745,7 @@
         <f t="shared" si="2"/>
         <v>-0.30769199999999997</v>
       </c>
-      <c r="P22" s="9">
+      <c r="P22" s="8">
         <f t="shared" si="3"/>
         <v>8.8394278713574748E-2</v>
       </c>
@@ -1771,7 +1769,7 @@
       <c r="F23" s="7">
         <v>707973.285714</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="13">
         <v>19</v>
       </c>
       <c r="H23">
@@ -1783,12 +1781,12 @@
       <c r="J23" s="7">
         <v>521664.52631599997</v>
       </c>
-      <c r="K23" s="12"/>
-      <c r="L23" s="9">
+      <c r="K23" s="11"/>
+      <c r="L23" s="8">
         <f t="shared" si="0"/>
         <v>0.74525905234953183</v>
       </c>
-      <c r="M23" s="9">
+      <c r="M23" s="8">
         <f t="shared" si="1"/>
         <v>0.78571664225394078</v>
       </c>
@@ -1796,7 +1794,7 @@
         <f t="shared" si="2"/>
         <v>-0.16917299999999999</v>
       </c>
-      <c r="P23" s="9">
+      <c r="P23" s="8">
         <f t="shared" si="3"/>
         <v>4.0457589904408953E-2</v>
       </c>
@@ -1820,7 +1818,7 @@
       <c r="F24" s="7">
         <v>664359.875</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="13">
         <v>10</v>
       </c>
       <c r="H24">
@@ -1832,12 +1830,12 @@
       <c r="J24" s="7">
         <v>531487.9</v>
       </c>
-      <c r="K24" s="12"/>
-      <c r="L24" s="9">
+      <c r="K24" s="11"/>
+      <c r="L24" s="8">
         <f t="shared" si="0"/>
         <v>0.79418327303406155</v>
       </c>
-      <c r="M24" s="9">
+      <c r="M24" s="8">
         <f t="shared" si="1"/>
         <v>0.77119441477407102</v>
       </c>
@@ -1845,7 +1843,7 @@
         <f t="shared" si="2"/>
         <v>-2.5000000000000001E-2</v>
       </c>
-      <c r="P24" s="9">
+      <c r="P24" s="8">
         <f t="shared" si="3"/>
         <v>-2.298885825999053E-2</v>
       </c>
@@ -1869,7 +1867,7 @@
       <c r="F25" s="7">
         <v>744560</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="13">
         <v>6</v>
       </c>
       <c r="H25">
@@ -1881,12 +1879,12 @@
       <c r="J25" s="7">
         <v>496373.33333300002</v>
       </c>
-      <c r="K25" s="12"/>
-      <c r="L25" s="9">
+      <c r="K25" s="11"/>
+      <c r="L25" s="8">
         <f t="shared" si="0"/>
         <v>0.70863798753626306</v>
       </c>
-      <c r="M25" s="9">
+      <c r="M25" s="8">
         <f t="shared" si="1"/>
         <v>0.82575044321533908</v>
       </c>
@@ -1894,7 +1892,7 @@
         <f t="shared" si="2"/>
         <v>-9.2349999999999988E-2</v>
       </c>
-      <c r="P25" s="9">
+      <c r="P25" s="8">
         <f t="shared" si="3"/>
         <v>0.11711245567907602</v>
       </c>
@@ -1918,7 +1916,7 @@
       <c r="F26" s="7">
         <v>751434.75</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="13">
         <v>12</v>
       </c>
       <c r="H26">
@@ -1930,12 +1928,12 @@
       <c r="J26" s="7">
         <v>500956.5</v>
       </c>
-      <c r="K26" s="12"/>
-      <c r="L26" s="9">
+      <c r="K26" s="11"/>
+      <c r="L26" s="8">
         <f t="shared" si="0"/>
         <v>0.70215477790985847</v>
       </c>
-      <c r="M26" s="9">
+      <c r="M26" s="8">
         <f t="shared" si="1"/>
         <v>0.81819579145095434</v>
       </c>
@@ -1943,7 +1941,7 @@
         <f t="shared" si="2"/>
         <v>-0.16666599999999998</v>
       </c>
-      <c r="P26" s="9">
+      <c r="P26" s="8">
         <f t="shared" si="3"/>
         <v>0.11604101354109586</v>
       </c>
@@ -1967,7 +1965,7 @@
       <c r="F27" s="7">
         <v>994416</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="13">
         <v>2</v>
       </c>
       <c r="H27">
@@ -1979,12 +1977,12 @@
       <c r="J27" s="7">
         <v>497208</v>
       </c>
-      <c r="K27" s="12"/>
-      <c r="L27" s="9">
+      <c r="K27" s="11"/>
+      <c r="L27" s="8">
         <f t="shared" si="0"/>
         <v>0.53058629386494183</v>
       </c>
-      <c r="M27" s="9">
+      <c r="M27" s="8">
         <f t="shared" si="1"/>
         <v>0.82436424997184277</v>
       </c>
@@ -1992,7 +1990,7 @@
         <f t="shared" si="2"/>
         <v>-0.39025200000000004</v>
       </c>
-      <c r="P27" s="9">
+      <c r="P27" s="8">
         <f t="shared" si="3"/>
         <v>0.29377795610690094</v>
       </c>
@@ -2016,7 +2014,7 @@
       <c r="F28" s="7">
         <v>610608.33333299996</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="13">
         <v>4</v>
       </c>
       <c r="H28">
@@ -2028,12 +2026,12 @@
       <c r="J28" s="7">
         <v>457956.25</v>
       </c>
-      <c r="K28" s="12"/>
-      <c r="L28" s="9">
+      <c r="K28" s="11"/>
+      <c r="L28" s="8">
         <f t="shared" si="0"/>
         <v>0.86409482346887079</v>
       </c>
-      <c r="M28" s="9">
+      <c r="M28" s="8">
         <f t="shared" si="1"/>
         <v>0.89502108552945836</v>
       </c>
@@ -2041,7 +2039,7 @@
         <f t="shared" si="2"/>
         <v>-0.25</v>
       </c>
-      <c r="P28" s="9">
+      <c r="P28" s="8">
         <f t="shared" si="3"/>
         <v>3.0926262060587573E-2</v>
       </c>
@@ -2065,7 +2063,7 @@
       <c r="F29" s="7">
         <v>677358</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G29" s="13">
         <v>5</v>
       </c>
       <c r="H29">
@@ -2077,12 +2075,12 @@
       <c r="J29" s="7">
         <v>541886.4</v>
       </c>
-      <c r="K29" s="12"/>
-      <c r="L29" s="9">
+      <c r="K29" s="11"/>
+      <c r="L29" s="8">
         <f t="shared" si="0"/>
         <v>0.77894333572497854</v>
       </c>
-      <c r="M29" s="9">
+      <c r="M29" s="8">
         <f t="shared" si="1"/>
         <v>0.75639562092719059</v>
       </c>
@@ -2090,7 +2088,7 @@
         <f t="shared" si="2"/>
         <v>9.5685999999999993E-2</v>
       </c>
-      <c r="P29" s="9">
+      <c r="P29" s="8">
         <f t="shared" si="3"/>
         <v>-2.2547714797787943E-2</v>
       </c>
@@ -2114,7 +2112,7 @@
       <c r="F30" s="7">
         <v>660722.5</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="13">
         <v>3</v>
       </c>
       <c r="H30">
@@ -2126,12 +2124,12 @@
       <c r="J30" s="7">
         <v>440481.66666699998</v>
       </c>
-      <c r="K30" s="12"/>
-      <c r="L30" s="9">
+      <c r="K30" s="11"/>
+      <c r="L30" s="8">
         <f t="shared" si="0"/>
         <v>0.79855536931162474</v>
       </c>
-      <c r="M30" s="9">
+      <c r="M30" s="8">
         <f t="shared" si="1"/>
         <v>0.93052794478700929</v>
       </c>
@@ -2139,7 +2137,7 @@
         <f t="shared" si="2"/>
         <v>-0.33333299999999999</v>
       </c>
-      <c r="P30" s="9">
+      <c r="P30" s="8">
         <f t="shared" si="3"/>
         <v>0.13197257547538455</v>
       </c>
@@ -2163,7 +2161,7 @@
       <c r="F31" s="7">
         <v>733958.41666700004</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G31" s="13">
         <v>17</v>
       </c>
       <c r="H31">
@@ -2175,12 +2173,12 @@
       <c r="J31" s="7">
         <v>518088.29411800002</v>
       </c>
-      <c r="K31" s="12"/>
-      <c r="L31" s="9">
+      <c r="K31" s="11"/>
+      <c r="L31" s="8">
         <f t="shared" si="0"/>
         <v>0.71887383265663263</v>
       </c>
-      <c r="M31" s="9">
+      <c r="M31" s="8">
         <f t="shared" si="1"/>
         <v>0.79114024511552739</v>
       </c>
@@ -2188,7 +2186,7 @@
         <f t="shared" si="2"/>
         <v>-2.9412000000000001E-2</v>
       </c>
-      <c r="P31" s="9">
+      <c r="P31" s="8">
         <f t="shared" si="3"/>
         <v>7.2266412458894758E-2</v>
       </c>
@@ -2212,7 +2210,7 @@
       <c r="F32" s="7">
         <v>689091</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G32" s="13">
         <v>4</v>
       </c>
       <c r="H32">
@@ -2224,12 +2222,12 @@
       <c r="J32" s="7">
         <v>516818.25</v>
       </c>
-      <c r="K32" s="12"/>
-      <c r="L32" s="9">
+      <c r="K32" s="11"/>
+      <c r="L32" s="8">
         <f t="shared" si="0"/>
         <v>0.76568043988384693</v>
       </c>
-      <c r="M32" s="9">
+      <c r="M32" s="8">
         <f t="shared" si="1"/>
         <v>0.79308441603987478</v>
       </c>
@@ -2237,7 +2235,7 @@
         <f t="shared" si="2"/>
         <v>-6.3564999999999997E-2</v>
       </c>
-      <c r="P32" s="9">
+      <c r="P32" s="8">
         <f t="shared" si="3"/>
         <v>2.7403976156027854E-2</v>
       </c>
@@ -2261,7 +2259,7 @@
       <c r="F33" s="7">
         <v>719298.33333299996</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G33" s="13">
         <v>38</v>
       </c>
       <c r="H33">
@@ -2273,12 +2271,12 @@
       <c r="J33" s="7">
         <v>511080.394737</v>
       </c>
-      <c r="K33" s="12"/>
-      <c r="L33" s="9">
+      <c r="K33" s="11"/>
+      <c r="L33" s="8">
         <f t="shared" si="0"/>
         <v>0.73352526420457609</v>
       </c>
-      <c r="M33" s="9">
+      <c r="M33" s="8">
         <f t="shared" si="1"/>
         <v>0.80198830599033821</v>
       </c>
@@ -2286,7 +2284,7 @@
         <f t="shared" si="2"/>
         <v>-9.0947E-2</v>
       </c>
-      <c r="P33" s="9">
+      <c r="P33" s="8">
         <f t="shared" si="3"/>
         <v>6.8463041785762124E-2</v>
       </c>
@@ -2310,7 +2308,7 @@
       <c r="F34" s="7">
         <v>735829.30769199994</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G34" s="13">
         <v>19</v>
       </c>
       <c r="H34">
@@ -2322,12 +2320,12 @@
       <c r="J34" s="7">
         <v>503462.15789500001</v>
       </c>
-      <c r="K34" s="12"/>
-      <c r="L34" s="9">
+      <c r="K34" s="11"/>
+      <c r="L34" s="8">
         <f t="shared" si="0"/>
         <v>0.71704605196406535</v>
       </c>
-      <c r="M34" s="9">
+      <c r="M34" s="8">
         <f t="shared" si="1"/>
         <v>0.81412375006242865</v>
       </c>
@@ -2335,7 +2333,7 @@
         <f t="shared" si="2"/>
         <v>-0.18463299999999999</v>
       </c>
-      <c r="P34" s="9">
+      <c r="P34" s="8">
         <f t="shared" si="3"/>
         <v>9.7077698098363308E-2</v>
       </c>
@@ -2359,7 +2357,7 @@
       <c r="F35" s="7">
         <v>675905</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G35" s="13">
         <v>1</v>
       </c>
       <c r="H35">
@@ -2371,12 +2369,12 @@
       <c r="J35" s="7">
         <v>675905</v>
       </c>
-      <c r="K35" s="12"/>
-      <c r="L35" s="9">
+      <c r="K35" s="11"/>
+      <c r="L35" s="8">
         <f t="shared" si="0"/>
         <v>0.7806178383056791</v>
       </c>
-      <c r="M35" s="9">
+      <c r="M35" s="8">
         <f t="shared" si="1"/>
         <v>0.60641732196092646</v>
       </c>
@@ -2384,7 +2382,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P35" s="9">
+      <c r="P35" s="8">
         <f t="shared" si="3"/>
         <v>-0.17420051634475264</v>
       </c>
@@ -2408,7 +2406,7 @@
       <c r="F36" s="7">
         <v>723030.9375</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G36" s="13">
         <v>23</v>
       </c>
       <c r="H36">
@@ -2420,12 +2418,12 @@
       <c r="J36" s="7">
         <v>502978.04347799998</v>
       </c>
-      <c r="K36" s="12"/>
-      <c r="L36" s="9">
+      <c r="K36" s="11"/>
+      <c r="L36" s="8">
         <f t="shared" si="0"/>
         <v>0.72973848370077521</v>
       </c>
-      <c r="M36" s="9">
+      <c r="M36" s="8">
         <f t="shared" si="1"/>
         <v>0.81490734101582707</v>
       </c>
@@ -2433,7 +2431,7 @@
         <f t="shared" si="2"/>
         <v>-0.22826099999999999</v>
       </c>
-      <c r="P36" s="9">
+      <c r="P36" s="8">
         <f t="shared" si="3"/>
         <v>8.516885731505186E-2</v>
       </c>
@@ -2457,7 +2455,7 @@
       <c r="F37" s="7">
         <v>752976.4</v>
       </c>
-      <c r="G37" s="9">
+      <c r="G37" s="13">
         <v>7</v>
       </c>
       <c r="H37">
@@ -2469,12 +2467,12 @@
       <c r="J37" s="7">
         <v>537840.285714</v>
       </c>
-      <c r="K37" s="12"/>
-      <c r="L37" s="9">
+      <c r="K37" s="11"/>
+      <c r="L37" s="8">
         <f t="shared" si="0"/>
         <v>0.70071718051189913</v>
       </c>
-      <c r="M37" s="9">
+      <c r="M37" s="8">
         <f t="shared" si="1"/>
         <v>0.76208590335673843</v>
       </c>
@@ -2482,7 +2480,7 @@
         <f t="shared" si="2"/>
         <v>-0.285715</v>
       </c>
-      <c r="P37" s="9">
+      <c r="P37" s="8">
         <f t="shared" si="3"/>
         <v>6.1368722844839296E-2</v>
       </c>
@@ -2506,7 +2504,7 @@
       <c r="F38" s="7">
         <v>769721.2</v>
       </c>
-      <c r="G38" s="9">
+      <c r="G38" s="13">
         <v>8</v>
       </c>
       <c r="H38">
@@ -2518,12 +2516,12 @@
       <c r="J38" s="7">
         <v>481075.75</v>
       </c>
-      <c r="K38" s="12"/>
-      <c r="L38" s="9">
+      <c r="K38" s="11"/>
+      <c r="L38" s="8">
         <f t="shared" si="0"/>
         <v>0.6854735195029058</v>
       </c>
-      <c r="M38" s="9">
+      <c r="M38" s="8">
         <f t="shared" si="1"/>
         <v>0.85200823363056655</v>
       </c>
@@ -2531,7 +2529,7 @@
         <f t="shared" si="2"/>
         <v>-0.17499999999999999</v>
       </c>
-      <c r="P38" s="9">
+      <c r="P38" s="8">
         <f t="shared" si="3"/>
         <v>0.16653471412766074</v>
       </c>
@@ -2555,7 +2553,7 @@
       <c r="F39" s="7">
         <v>707494.72222200001</v>
       </c>
-      <c r="G39" s="9">
+      <c r="G39" s="13">
         <v>25</v>
       </c>
       <c r="H39">
@@ -2567,12 +2565,12 @@
       <c r="J39" s="7">
         <v>509396.2</v>
       </c>
-      <c r="K39" s="12"/>
-      <c r="L39" s="9">
+      <c r="K39" s="11"/>
+      <c r="L39" s="8">
         <f t="shared" si="0"/>
         <v>0.74576316038501922</v>
       </c>
-      <c r="M39" s="9">
+      <c r="M39" s="8">
         <f t="shared" si="1"/>
         <v>0.80463988541728426</v>
       </c>
@@ -2580,7 +2578,7 @@
         <f t="shared" si="2"/>
         <v>-0.20222200000000001</v>
       </c>
-      <c r="P39" s="9">
+      <c r="P39" s="8">
         <f t="shared" si="3"/>
         <v>5.8876725032265043E-2</v>
       </c>
@@ -2604,7 +2602,7 @@
       <c r="F40" s="7">
         <v>527623.5</v>
       </c>
-      <c r="G40" s="9">
+      <c r="G40" s="13">
         <v>2</v>
       </c>
       <c r="H40">
@@ -2616,12 +2614,12 @@
       <c r="J40" s="7">
         <v>527623.5</v>
       </c>
-      <c r="K40" s="12"/>
-      <c r="L40" s="9">
+      <c r="K40" s="11"/>
+      <c r="L40" s="8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M40" s="9">
+      <c r="M40" s="8">
         <f t="shared" si="1"/>
         <v>0.77684276761743931</v>
       </c>
@@ -2629,7 +2627,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P40" s="9">
+      <c r="P40" s="8">
         <f t="shared" si="3"/>
         <v>-0.22315723238256069</v>
       </c>
@@ -2653,7 +2651,7 @@
       <c r="F41" s="7">
         <v>663710.714286</v>
       </c>
-      <c r="G41" s="9">
+      <c r="G41" s="13">
         <v>9</v>
       </c>
       <c r="H41">
@@ -2665,12 +2663,12 @@
       <c r="J41" s="7">
         <v>516219.44444400002</v>
       </c>
-      <c r="K41" s="12"/>
-      <c r="L41" s="9">
+      <c r="K41" s="11"/>
+      <c r="L41" s="8">
         <f t="shared" si="0"/>
         <v>0.79496004606103354</v>
       </c>
-      <c r="M41" s="9">
+      <c r="M41" s="8">
         <f t="shared" si="1"/>
         <v>0.79400438013617725</v>
       </c>
@@ -2678,7 +2676,7 @@
         <f t="shared" si="2"/>
         <v>-0.19047599999999998</v>
       </c>
-      <c r="P41" s="9">
+      <c r="P41" s="8">
         <f t="shared" si="3"/>
         <v>-9.5566592485629709E-4</v>
       </c>
@@ -2702,7 +2700,7 @@
       <c r="F42" s="7">
         <v>819761</v>
       </c>
-      <c r="G42" s="9">
+      <c r="G42" s="13">
         <v>2</v>
       </c>
       <c r="H42">
@@ -2714,12 +2712,12 @@
       <c r="J42" s="7">
         <v>409880.5</v>
       </c>
-      <c r="K42" s="12"/>
-      <c r="L42" s="9">
+      <c r="K42" s="11"/>
+      <c r="L42" s="8">
         <f t="shared" si="0"/>
         <v>0.64363088753917297</v>
       </c>
-      <c r="M42" s="9">
+      <c r="M42" s="8">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2727,7 +2725,7 @@
         <f t="shared" si="2"/>
         <v>-0.35100600000000004</v>
       </c>
-      <c r="P42" s="9">
+      <c r="P42" s="8">
         <f t="shared" si="3"/>
         <v>0.35636911246082703</v>
       </c>
@@ -2751,7 +2749,7 @@
       <c r="F43" s="7">
         <v>708381.22222200001</v>
       </c>
-      <c r="G43" s="9">
+      <c r="G43" s="13">
         <v>12</v>
       </c>
       <c r="H43">
@@ -2763,12 +2761,12 @@
       <c r="J43" s="7">
         <v>531285.91666700004</v>
       </c>
-      <c r="K43" s="12"/>
-      <c r="L43" s="9">
+      <c r="K43" s="11"/>
+      <c r="L43" s="8">
         <f t="shared" si="0"/>
         <v>0.74482987895273112</v>
       </c>
-      <c r="M43" s="9">
+      <c r="M43" s="8">
         <f t="shared" si="1"/>
         <v>0.77148760609234324</v>
       </c>
@@ -2776,7 +2774,7 @@
         <f t="shared" si="2"/>
         <v>-0.14106399999999999</v>
       </c>
-      <c r="P43" s="9">
+      <c r="P43" s="8">
         <f t="shared" si="3"/>
         <v>2.665772713961212E-2</v>
       </c>
@@ -2800,7 +2798,7 @@
       <c r="F44" s="7">
         <v>701900.5</v>
       </c>
-      <c r="G44" s="9">
+      <c r="G44" s="13">
         <v>49</v>
       </c>
       <c r="H44">
@@ -2812,12 +2810,12 @@
       <c r="J44" s="7">
         <v>515682</v>
       </c>
-      <c r="K44" s="12"/>
-      <c r="L44" s="9">
+      <c r="K44" s="11"/>
+      <c r="L44" s="8">
         <f t="shared" si="0"/>
         <v>0.7517069727119442</v>
       </c>
-      <c r="M44" s="9">
+      <c r="M44" s="8">
         <f t="shared" si="1"/>
         <v>0.79483189252291142</v>
       </c>
@@ -2825,7 +2823,7 @@
         <f t="shared" si="2"/>
         <v>-8.5720000000000005E-2</v>
       </c>
-      <c r="P44" s="9">
+      <c r="P44" s="8">
         <f t="shared" si="3"/>
         <v>4.3124919810967222E-2</v>
       </c>
@@ -2849,7 +2847,7 @@
       <c r="F45" s="7">
         <v>692691.25</v>
       </c>
-      <c r="G45" s="9">
+      <c r="G45" s="13">
         <v>5</v>
       </c>
       <c r="H45">
@@ -2861,12 +2859,12 @@
       <c r="J45" s="7">
         <v>554153</v>
       </c>
-      <c r="K45" s="12"/>
-      <c r="L45" s="9">
+      <c r="K45" s="11"/>
+      <c r="L45" s="8">
         <f t="shared" si="0"/>
         <v>0.76170082991520394</v>
       </c>
-      <c r="M45" s="9">
+      <c r="M45" s="8">
         <f t="shared" si="1"/>
         <v>0.73965222600978431</v>
       </c>
@@ -2874,7 +2872,7 @@
         <f t="shared" si="2"/>
         <v>-1.7177999999999999E-2</v>
       </c>
-      <c r="P45" s="9">
+      <c r="P45" s="8">
         <f t="shared" si="3"/>
         <v>-2.2048603905419628E-2</v>
       </c>
@@ -2898,7 +2896,7 @@
       <c r="F46" s="7">
         <v>630337</v>
       </c>
-      <c r="G46" s="9">
+      <c r="G46" s="13">
         <v>1</v>
       </c>
       <c r="H46">
@@ -2910,12 +2908,12 @@
       <c r="J46" s="7">
         <v>630337</v>
       </c>
-      <c r="K46" s="12"/>
-      <c r="L46" s="9">
+      <c r="K46" s="11"/>
+      <c r="L46" s="8">
         <f t="shared" si="0"/>
         <v>0.83704986380301327</v>
       </c>
-      <c r="M46" s="9">
+      <c r="M46" s="8">
         <f t="shared" si="1"/>
         <v>0.65025613283053352</v>
       </c>
@@ -2923,7 +2921,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P46" s="9">
+      <c r="P46" s="8">
         <f t="shared" si="3"/>
         <v>-0.18679373097247975</v>
       </c>
@@ -2947,7 +2945,7 @@
       <c r="F47" s="7">
         <v>730703.27272699995</v>
       </c>
-      <c r="G47" s="9">
+      <c r="G47" s="13">
         <v>16</v>
       </c>
       <c r="H47">
@@ -2959,12 +2957,12 @@
       <c r="J47" s="7">
         <v>502358.5</v>
       </c>
-      <c r="K47" s="12"/>
-      <c r="L47" s="9">
+      <c r="K47" s="11"/>
+      <c r="L47" s="8">
         <f t="shared" si="0"/>
         <v>0.72207627869367275</v>
       </c>
-      <c r="M47" s="9">
+      <c r="M47" s="8">
         <f t="shared" si="1"/>
         <v>0.8159123414852143</v>
       </c>
@@ -2972,7 +2970,7 @@
         <f t="shared" si="2"/>
         <v>-0.208065</v>
       </c>
-      <c r="P47" s="9">
+      <c r="P47" s="8">
         <f t="shared" si="3"/>
         <v>9.3836062791541552E-2</v>
       </c>
@@ -2996,7 +2994,7 @@
       <c r="F48" s="7">
         <v>675336.9</v>
       </c>
-      <c r="G48" s="9">
+      <c r="G48" s="13">
         <v>13</v>
       </c>
       <c r="H48">
@@ -3008,12 +3006,12 @@
       <c r="J48" s="7">
         <v>519489.92307700001</v>
       </c>
-      <c r="K48" s="12"/>
-      <c r="L48" s="9">
+      <c r="K48" s="11"/>
+      <c r="L48" s="8">
         <f t="shared" si="0"/>
         <v>0.78127450165983825</v>
       </c>
-      <c r="M48" s="9">
+      <c r="M48" s="8">
         <f t="shared" si="1"/>
         <v>0.7890056799797569</v>
       </c>
@@ -3021,7 +3019,7 @@
         <f t="shared" si="2"/>
         <v>-4.9585000000000004E-2</v>
       </c>
-      <c r="P48" s="9">
+      <c r="P48" s="8">
         <f t="shared" si="3"/>
         <v>7.7311783199186523E-3</v>
       </c>
@@ -3045,7 +3043,7 @@
       <c r="F49" s="7">
         <v>619938.33333299996</v>
       </c>
-      <c r="G49" s="9">
+      <c r="G49" s="13">
         <v>4</v>
       </c>
       <c r="H49">
@@ -3057,12 +3055,12 @@
       <c r="J49" s="7">
         <v>464953.75</v>
       </c>
-      <c r="K49" s="12"/>
-      <c r="L49" s="9">
+      <c r="K49" s="11"/>
+      <c r="L49" s="8">
         <f t="shared" si="0"/>
         <v>0.85109029661598123</v>
       </c>
-      <c r="M49" s="9">
+      <c r="M49" s="8">
         <f t="shared" si="1"/>
         <v>0.88155112202020092</v>
       </c>
@@ -3070,7 +3068,7 @@
         <f t="shared" si="2"/>
         <v>3.1588999999999992E-2</v>
       </c>
-      <c r="P49" s="9">
+      <c r="P49" s="8">
         <f t="shared" si="3"/>
         <v>3.0460825404219682E-2</v>
       </c>
@@ -3094,7 +3092,7 @@
       <c r="F50" s="7">
         <v>712278.75</v>
       </c>
-      <c r="G50" s="9">
+      <c r="G50" s="13">
         <v>11</v>
       </c>
       <c r="H50">
@@ -3106,12 +3104,12 @@
       <c r="J50" s="7">
         <v>518020.90909099998</v>
       </c>
-      <c r="K50" s="12"/>
-      <c r="L50" s="9">
+      <c r="K50" s="11"/>
+      <c r="L50" s="8">
         <f t="shared" si="0"/>
         <v>0.74075423420957032</v>
       </c>
-      <c r="M50" s="9">
+      <c r="M50" s="8">
         <f t="shared" si="1"/>
         <v>0.79124315796294797</v>
       </c>
@@ -3119,7 +3117,7 @@
         <f t="shared" si="2"/>
         <v>-9.4656000000000004E-2</v>
       </c>
-      <c r="P50" s="9">
+      <c r="P50" s="8">
         <f t="shared" si="3"/>
         <v>5.0488923753377657E-2</v>
       </c>
@@ -3143,7 +3141,7 @@
       <c r="F51" s="7">
         <v>568300</v>
       </c>
-      <c r="G51" s="9">
+      <c r="G51" s="13">
         <v>1</v>
       </c>
       <c r="H51">
@@ -3155,12 +3153,12 @@
       <c r="J51" s="7">
         <v>568300</v>
       </c>
-      <c r="K51" s="12"/>
-      <c r="L51" s="9">
+      <c r="K51" s="11"/>
+      <c r="L51" s="8">
         <f t="shared" si="0"/>
         <v>0.9284242477564667</v>
       </c>
-      <c r="M51" s="9">
+      <c r="M51" s="8">
         <f t="shared" si="1"/>
         <v>0.7212396621502728</v>
       </c>
@@ -3168,16 +3166,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P51" s="9">
+      <c r="P51" s="8">
         <f t="shared" si="3"/>
         <v>-0.20718458560619391</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="K52" s="14"/>
-    </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D53" s="10" t="s">
+      <c r="D53" s="9" t="s">
         <v>62</v>
       </c>
       <c r="E53" s="5">
@@ -3188,12 +3183,11 @@
         <f>MIN(I$2:I$51)</f>
         <v>9.2500000000000004E-4</v>
       </c>
-      <c r="K53" s="14"/>
-      <c r="L53" s="9">
+      <c r="L53" s="8">
         <f>MIN(L$2:L$51)</f>
         <v>0.53058629386494183</v>
       </c>
-      <c r="M53" s="9">
+      <c r="M53" s="8">
         <f>MIN(M$2:M$51)</f>
         <v>0.56807683192358382</v>
       </c>
@@ -3201,13 +3195,13 @@
         <f>MIN(O$2:O$51)</f>
         <v>-0.39025200000000004</v>
       </c>
-      <c r="P53" s="9">
+      <c r="P53" s="8">
         <f>MIN(P$2:P$51)</f>
         <v>-0.22315723238256069</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D54" s="10" t="s">
+      <c r="D54" s="9" t="s">
         <v>63</v>
       </c>
       <c r="E54" s="5">
@@ -3218,12 +3212,11 @@
         <f>MAX(I$2:I$51)</f>
         <v>0.43171700000000002</v>
       </c>
-      <c r="K54" s="14"/>
-      <c r="L54" s="9">
+      <c r="L54" s="8">
         <f>MAX(L$2:L$51)</f>
         <v>1</v>
       </c>
-      <c r="M54" s="9">
+      <c r="M54" s="8">
         <f>MAX(M$2:M$51)</f>
         <v>1</v>
       </c>
@@ -3231,13 +3224,13 @@
         <f>MAX(O$2:O$51)</f>
         <v>9.5685999999999993E-2</v>
       </c>
-      <c r="P54" s="9">
+      <c r="P54" s="8">
         <f>MAX(P$2:P$51)</f>
         <v>0.35636911246082703</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D55" s="10" t="s">
+      <c r="D55" s="9" t="s">
         <v>64</v>
       </c>
       <c r="E55" s="5">
@@ -3248,12 +3241,11 @@
         <f>AVERAGE(I$2:I$51)</f>
         <v>6.7686340000000011E-2</v>
       </c>
-      <c r="K55" s="14"/>
-      <c r="L55" s="9">
+      <c r="L55" s="8">
         <f>AVERAGE(L$2:L$51)</f>
         <v>0.74684594900978496</v>
       </c>
-      <c r="M55" s="9">
+      <c r="M55" s="8">
         <f>AVERAGE(M$2:M$51)</f>
         <v>0.80166610392298088</v>
       </c>
@@ -3261,13 +3253,13 @@
         <f>AVERAGE(O$2:O$51)</f>
         <v>-0.15282518</v>
       </c>
-      <c r="P55" s="9">
+      <c r="P55" s="8">
         <f>AVERAGE(P$2:P$51)</f>
         <v>5.4820154913195675E-2</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D56" s="10" t="s">
+      <c r="D56" s="9" t="s">
         <v>65</v>
       </c>
       <c r="E56" s="5">
@@ -3278,12 +3270,11 @@
         <f>MEDIAN(I$2:I$51)</f>
         <v>3.2167000000000001E-2</v>
       </c>
-      <c r="K56" s="14"/>
-      <c r="L56" s="9">
+      <c r="L56" s="8">
         <f>MEDIAN(L$2:L$51)</f>
         <v>0.73937922905968811</v>
       </c>
-      <c r="M56" s="9">
+      <c r="M56" s="8">
         <f>MEDIAN(M$2:M$51)</f>
         <v>0.8011775090377391</v>
       </c>
@@ -3291,7 +3282,7 @@
         <f>MEDIAN(O$2:O$51)</f>
         <v>-0.1666665</v>
       </c>
-      <c r="P56" s="9">
+      <c r="P56" s="8">
         <f>MEDIAN(P$2:P$51)</f>
         <v>5.8580439320570554E-2</v>
       </c>
